--- a/output_files/json_to_excel/passenger.xlsx
+++ b/output_files/json_to_excel/passenger.xlsx
@@ -461,16 +461,16 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>5691</v>
+        <v>6865</v>
       </c>
       <c r="I2" t="str">
         <v>140.00</v>
       </c>
       <c r="J2" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K2" t="str">
-        <v>140.00</v>
+        <v>133.00</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>3893</v>
+        <v>9008</v>
       </c>
       <c r="I3" t="str">
         <v>140.00</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>4518</v>
+        <v>4397</v>
       </c>
       <c r="I4" t="str">
         <v>140.00</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>2018</v>
+        <v>5053</v>
       </c>
       <c r="I5" t="str">
         <v>140.00</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>3861</v>
+        <v>8272</v>
       </c>
       <c r="I6" t="str">
         <v>140.00</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>7683</v>
+        <v>3690</v>
       </c>
       <c r="I7" t="str">
         <v>140.00</v>
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>8997</v>
+        <v>2505</v>
       </c>
       <c r="I8" t="str">
         <v>140.00</v>
       </c>
       <c r="J8" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K8" t="str">
-        <v>133.00</v>
+        <v>140.00</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>9765</v>
+        <v>7400</v>
       </c>
       <c r="I9" t="str">
         <v>140.00</v>
@@ -741,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>5811</v>
+        <v>9661</v>
       </c>
       <c r="I10" t="str">
         <v>140.00</v>
       </c>
       <c r="J10" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K10" t="str">
-        <v>126.00</v>
+        <v>140.00</v>
       </c>
     </row>
     <row r="11">
@@ -776,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1924</v>
+        <v>3423</v>
       </c>
       <c r="I11" t="str">
         <v>140.00</v>
       </c>
       <c r="J11" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K11" t="str">
-        <v>140.00</v>
+        <v>133.00</v>
       </c>
     </row>
     <row r="12">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>5521</v>
+        <v>2735</v>
       </c>
       <c r="I12" t="str">
         <v>140.00</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>4145</v>
+        <v>3709</v>
       </c>
       <c r="I13" t="str">
         <v>140.00</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>8512</v>
+        <v>6865</v>
       </c>
       <c r="I14" t="str">
         <v>140.00</v>
       </c>
       <c r="J14" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K14" t="str">
-        <v>126.00</v>
+        <v>133.00</v>
       </c>
     </row>
     <row r="15">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5230</v>
+        <v>5076</v>
       </c>
       <c r="I15" t="str">
         <v>120.00</v>
@@ -951,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>9076</v>
+        <v>5603</v>
       </c>
       <c r="I16" t="str">
         <v>120.00</v>
       </c>
       <c r="J16" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K16" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="17">
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5722</v>
+        <v>9738</v>
       </c>
       <c r="I17" t="str">
         <v>120.00</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4177</v>
+        <v>3448</v>
       </c>
       <c r="I18" t="str">
         <v>120.00</v>
       </c>
       <c r="J18" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K18" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="19">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3794</v>
+        <v>1496</v>
       </c>
       <c r="I19" t="str">
         <v>120.00</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9084</v>
+        <v>5864</v>
       </c>
       <c r="I20" t="str">
         <v>120.00</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1174</v>
+        <v>3280</v>
       </c>
       <c r="I21" t="str">
         <v>120.00</v>
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3979</v>
+        <v>7366</v>
       </c>
       <c r="I22" t="str">
         <v>120.00</v>
       </c>
       <c r="J22" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K22" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1339</v>
+        <v>2627</v>
       </c>
       <c r="I23" t="str">
         <v>120.00</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5160</v>
+        <v>2419</v>
       </c>
       <c r="I24" t="str">
         <v>120.00</v>
       </c>
       <c r="J24" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K24" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="25">
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6562</v>
+        <v>9110</v>
       </c>
       <c r="I25" t="str">
         <v>120.00</v>
       </c>
       <c r="J25" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K25" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="26">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1539</v>
+        <v>4350</v>
       </c>
       <c r="I26" t="str">
         <v>120.00</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>3444</v>
+        <v>2161</v>
       </c>
       <c r="I27" t="str">
         <v>120.00</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9978</v>
+        <v>9068</v>
       </c>
       <c r="I28" t="str">
         <v>120.00</v>
       </c>
       <c r="J28" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K28" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="29">
@@ -1406,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>1608</v>
+        <v>7833</v>
       </c>
       <c r="I29" t="str">
         <v>120.00</v>
       </c>
       <c r="J29" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K29" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="30">
@@ -1441,16 +1441,16 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>9437</v>
+        <v>4524</v>
       </c>
       <c r="I30" t="str">
         <v>120.00</v>
       </c>
       <c r="J30" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K30" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="31">
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>2554</v>
+        <v>3281</v>
       </c>
       <c r="I31" t="str">
         <v>120.00</v>
       </c>
       <c r="J31" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K31" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="32">
@@ -1511,16 +1511,16 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>4629</v>
+        <v>1545</v>
       </c>
       <c r="I32" t="str">
         <v>120.00</v>
       </c>
       <c r="J32" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K32" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="33">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4269</v>
+        <v>9118</v>
       </c>
       <c r="I33" t="str">
         <v>120.00</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8815</v>
+        <v>6580</v>
       </c>
       <c r="I34" t="str">
         <v>120.00</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8917</v>
+        <v>4417</v>
       </c>
       <c r="I35" t="str">
         <v>120.00</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1819</v>
+        <v>2447</v>
       </c>
       <c r="I36" t="str">
         <v>120.00</v>
       </c>
       <c r="J36" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K36" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="37">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>8947</v>
+        <v>5893</v>
       </c>
       <c r="I37" t="str">
         <v>120.00</v>
       </c>
       <c r="J37" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K37" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="38">
@@ -1721,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7118</v>
+        <v>4419</v>
       </c>
       <c r="I38" t="str">
         <v>120.00</v>
       </c>
       <c r="J38" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K38" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="39">
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>9932</v>
+        <v>5812</v>
       </c>
       <c r="I39" t="str">
         <v>120.00</v>
       </c>
       <c r="J39" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K39" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="40">
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>9768</v>
+        <v>6977</v>
       </c>
       <c r="I40" t="str">
         <v>120.00</v>
       </c>
       <c r="J40" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K40" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="41">
@@ -1826,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2718</v>
+        <v>2557</v>
       </c>
       <c r="I41" t="str">
         <v>120.00</v>
       </c>
       <c r="J41" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K41" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="42">
@@ -1861,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>6236</v>
+        <v>8802</v>
       </c>
       <c r="I42" t="str">
         <v>120.00</v>
       </c>
       <c r="J42" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K42" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="43">
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1868</v>
+        <v>4731</v>
       </c>
       <c r="I43" t="str">
         <v>120.00</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3676</v>
+        <v>4530</v>
       </c>
       <c r="I44" t="str">
         <v>120.00</v>
       </c>
       <c r="J44" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K44" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="45">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>6815</v>
+        <v>2400</v>
       </c>
       <c r="I45" t="str">
         <v>120.00</v>
@@ -2001,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2936</v>
+        <v>2566</v>
       </c>
       <c r="I46" t="str">
         <v>120.00</v>
       </c>
       <c r="J46" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K46" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="47">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>7027</v>
+        <v>3551</v>
       </c>
       <c r="I47" t="str">
         <v>120.00</v>
@@ -2071,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>8187</v>
+        <v>5577</v>
       </c>
       <c r="I48" t="str">
         <v>120.00</v>
       </c>
       <c r="J48" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K48" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="49">
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7004</v>
+        <v>7551</v>
       </c>
       <c r="I49" t="str">
         <v>120.00</v>
       </c>
       <c r="J49" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K49" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="50">
@@ -2141,16 +2141,16 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1545</v>
+        <v>9891</v>
       </c>
       <c r="I50" t="str">
         <v>120.00</v>
       </c>
       <c r="J50" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K50" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="51">
@@ -2176,16 +2176,16 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>4932</v>
+        <v>7650</v>
       </c>
       <c r="I51" t="str">
         <v>120.00</v>
       </c>
       <c r="J51" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K51" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="52">
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>7398</v>
+        <v>9412</v>
       </c>
       <c r="I52" t="str">
         <v>120.00</v>
       </c>
       <c r="J52" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K52" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="53">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5115</v>
+        <v>5322</v>
       </c>
       <c r="I53" t="str">
         <v>120.00</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5303</v>
+        <v>9537</v>
       </c>
       <c r="I54" t="str">
         <v>120.00</v>
@@ -2316,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="I55" t="str">
         <v>120.00</v>
       </c>
       <c r="J55" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K55" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="56">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4588</v>
+        <v>2631</v>
       </c>
       <c r="I56" t="str">
         <v>120.00</v>
@@ -2386,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>7160</v>
+        <v>3859</v>
       </c>
       <c r="I57" t="str">
         <v>120.00</v>
       </c>
       <c r="J57" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K57" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="58">
@@ -2421,16 +2421,16 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>6968</v>
+        <v>7432</v>
       </c>
       <c r="I58" t="str">
         <v>120.00</v>
       </c>
       <c r="J58" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K58" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="59">
@@ -2456,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>9416</v>
+        <v>4047</v>
       </c>
       <c r="I59" t="str">
         <v>120.00</v>
       </c>
       <c r="J59" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K59" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="60">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2491</v>
+        <v>2353</v>
       </c>
       <c r="I60" t="str">
         <v>120.00</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2477</v>
+        <v>9098</v>
       </c>
       <c r="I61" t="str">
         <v>120.00</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>6647</v>
+        <v>5704</v>
       </c>
       <c r="I62" t="str">
         <v>120.00</v>
@@ -2596,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>7055</v>
+        <v>2170</v>
       </c>
       <c r="I63" t="str">
         <v>120.00</v>
       </c>
       <c r="J63" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K63" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="64">
@@ -2631,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>8156</v>
+        <v>7177</v>
       </c>
       <c r="I64" t="str">
         <v>120.00</v>
       </c>
       <c r="J64" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K64" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="65">
@@ -2666,16 +2666,16 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>7758</v>
+        <v>1023</v>
       </c>
       <c r="I65" t="str">
         <v>120.00</v>
       </c>
       <c r="J65" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K65" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="66">
@@ -2701,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>5457</v>
+        <v>2016</v>
       </c>
       <c r="I66" t="str">
         <v>120.00</v>
       </c>
       <c r="J66" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K66" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="67">
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>1282</v>
+        <v>6364</v>
       </c>
       <c r="I67" t="str">
         <v>120.00</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>7430</v>
+        <v>4420</v>
       </c>
       <c r="I68" t="str">
         <v>120.00</v>
@@ -2806,16 +2806,16 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5944</v>
+        <v>5454</v>
       </c>
       <c r="I69" t="str">
         <v>120.00</v>
       </c>
       <c r="J69" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K69" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="70">
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>6136</v>
+        <v>9070</v>
       </c>
       <c r="I70" t="str">
         <v>120.00</v>
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>8560</v>
+        <v>9529</v>
       </c>
       <c r="I71" t="str">
         <v>120.00</v>
       </c>
       <c r="J71" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K71" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="72">
@@ -2911,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3784</v>
+        <v>8701</v>
       </c>
       <c r="I72" t="str">
         <v>120.00</v>
       </c>
       <c r="J72" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K72" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="73">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>9773</v>
+        <v>1270</v>
       </c>
       <c r="I73" t="str">
         <v>120.00</v>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>4086</v>
+        <v>2674</v>
       </c>
       <c r="I74" t="str">
         <v>120.00</v>
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>4039</v>
+        <v>8981</v>
       </c>
       <c r="I75" t="str">
         <v>120.00</v>
       </c>
       <c r="J75" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K75" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="76">
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>5643</v>
+        <v>5243</v>
       </c>
       <c r="I76" t="str">
         <v>120.00</v>
       </c>
       <c r="J76" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K76" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="77">
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>7844</v>
+        <v>3072</v>
       </c>
       <c r="I77" t="str">
         <v>120.00</v>
       </c>
       <c r="J77" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K77" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="78">
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>1885</v>
+        <v>5754</v>
       </c>
       <c r="I78" t="str">
         <v>120.00</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>5386</v>
+        <v>7453</v>
       </c>
       <c r="I79" t="str">
         <v>120.00</v>
       </c>
       <c r="J79" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K79" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="80">
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>4647</v>
+        <v>2528</v>
       </c>
       <c r="I80" t="str">
         <v>120.00</v>
       </c>
       <c r="J80" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K80" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="81">
@@ -3226,16 +3226,16 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>7267</v>
+        <v>1195</v>
       </c>
       <c r="I81" t="str">
         <v>120.00</v>
       </c>
       <c r="J81" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K81" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="82">
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>8306</v>
+        <v>1011</v>
       </c>
       <c r="I82" t="str">
         <v>120.00</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>7149</v>
+        <v>2476</v>
       </c>
       <c r="I83" t="str">
         <v>120.00</v>
@@ -3331,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>5008</v>
+        <v>4250</v>
       </c>
       <c r="I84" t="str">
         <v>120.00</v>
       </c>
       <c r="J84" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K84" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="85">
@@ -3366,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>1959</v>
+        <v>8743</v>
       </c>
       <c r="I85" t="str">
         <v>120.00</v>
       </c>
       <c r="J85" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K85" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="86">
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>4621</v>
+        <v>7092</v>
       </c>
       <c r="I86" t="str">
         <v>120.00</v>
       </c>
       <c r="J86" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K86" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="87">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>7326</v>
+        <v>9719</v>
       </c>
       <c r="I87" t="str">
         <v>120.00</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>9001</v>
+        <v>4155</v>
       </c>
       <c r="I88" t="str">
         <v>120.00</v>
       </c>
       <c r="J88" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K88" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="89">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>3943</v>
+        <v>2171</v>
       </c>
       <c r="I89" t="str">
         <v>120.00</v>
@@ -3541,16 +3541,16 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>3846</v>
+        <v>9656</v>
       </c>
       <c r="I90" t="str">
         <v>120.00</v>
       </c>
       <c r="J90" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K90" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="91">
@@ -3576,16 +3576,16 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>1213</v>
+        <v>8185</v>
       </c>
       <c r="I91" t="str">
         <v>120.00</v>
       </c>
       <c r="J91" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K91" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="92">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>8246</v>
+        <v>1964</v>
       </c>
       <c r="I92" t="str">
         <v>120.00</v>
@@ -3646,16 +3646,16 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>5229</v>
+        <v>2098</v>
       </c>
       <c r="I93" t="str">
         <v>120.00</v>
       </c>
       <c r="J93" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K93" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="94">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>2488</v>
+        <v>7692</v>
       </c>
       <c r="I94" t="str">
         <v>120.00</v>
@@ -3716,16 +3716,16 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>4852</v>
+        <v>6734</v>
       </c>
       <c r="I95" t="str">
         <v>120.00</v>
       </c>
       <c r="J95" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K95" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="96">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>2369</v>
+        <v>9228</v>
       </c>
       <c r="I96" t="str">
         <v>120.00</v>
       </c>
       <c r="J96" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K96" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="97">
@@ -3786,16 +3786,16 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>9689</v>
+        <v>7384</v>
       </c>
       <c r="I97" t="str">
         <v>120.00</v>
       </c>
       <c r="J97" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K97" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="98">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>4753</v>
+        <v>5650</v>
       </c>
       <c r="I98" t="str">
         <v>120.00</v>
       </c>
       <c r="J98" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K98" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="99">
@@ -3856,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>4674</v>
+        <v>1275</v>
       </c>
       <c r="I99" t="str">
         <v>120.00</v>
       </c>
       <c r="J99" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K99" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="100">
@@ -3891,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>4679</v>
+        <v>8067</v>
       </c>
       <c r="I100" t="str">
         <v>120.00</v>
       </c>
       <c r="J100" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K100" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="101">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>5168</v>
+        <v>6648</v>
       </c>
       <c r="I101" t="str">
         <v>120.00</v>
@@ -3961,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1720</v>
+        <v>4827</v>
       </c>
       <c r="I102" t="str">
         <v>120.00</v>
       </c>
       <c r="J102" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K102" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="103">
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>4665</v>
+        <v>8438</v>
       </c>
       <c r="I103" t="str">
         <v>120.00</v>
       </c>
       <c r="J103" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K103" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="104">
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>5082</v>
+        <v>1580</v>
       </c>
       <c r="I104" t="str">
         <v>120.00</v>
       </c>
       <c r="J104" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K104" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="105">
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1439</v>
+        <v>8825</v>
       </c>
       <c r="I105" t="str">
         <v>120.00</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>2450</v>
+        <v>3405</v>
       </c>
       <c r="I106" t="str">
         <v>120.00</v>
@@ -4136,16 +4136,16 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>2781</v>
+        <v>5232</v>
       </c>
       <c r="I107" t="str">
         <v>120.00</v>
       </c>
       <c r="J107" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K107" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="108">
@@ -4171,16 +4171,16 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>6809</v>
+        <v>9178</v>
       </c>
       <c r="I108" t="str">
         <v>120.00</v>
       </c>
       <c r="J108" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K108" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="109">
@@ -4206,16 +4206,16 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1376</v>
+        <v>7897</v>
       </c>
       <c r="I109" t="str">
         <v>120.00</v>
       </c>
       <c r="J109" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K109" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="110">
@@ -4241,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>2520</v>
+        <v>6170</v>
       </c>
       <c r="I110" t="str">
         <v>120.00</v>
       </c>
       <c r="J110" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K110" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="111">
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>2782</v>
+        <v>3594</v>
       </c>
       <c r="I111" t="str">
         <v>120.00</v>
@@ -4311,16 +4311,16 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>5633</v>
+        <v>1203</v>
       </c>
       <c r="I112" t="str">
         <v>120.00</v>
       </c>
       <c r="J112" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K112" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="113">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>5533</v>
+        <v>8184</v>
       </c>
       <c r="I113" t="str">
         <v>120.00</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>7412</v>
+        <v>1675</v>
       </c>
       <c r="I114" t="str">
         <v>120.00</v>
@@ -4416,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>3972</v>
+        <v>2963</v>
       </c>
       <c r="I115" t="str">
         <v>120.00</v>
       </c>
       <c r="J115" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K115" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="116">
@@ -4451,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>3188</v>
+        <v>6714</v>
       </c>
       <c r="I116" t="str">
         <v>120.00</v>
       </c>
       <c r="J116" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K116" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="117">
@@ -4486,16 +4486,16 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>9628</v>
+        <v>1512</v>
       </c>
       <c r="I117" t="str">
         <v>120.00</v>
       </c>
       <c r="J117" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K117" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="118">
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1605</v>
+        <v>1700</v>
       </c>
       <c r="I118" t="str">
         <v>120.00</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1133</v>
+        <v>5503</v>
       </c>
       <c r="I119" t="str">
         <v>120.00</v>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>4238</v>
+        <v>1647</v>
       </c>
       <c r="I120" t="str">
         <v>120.00</v>
@@ -4626,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1248</v>
+        <v>1755</v>
       </c>
       <c r="I121" t="str">
         <v>120.00</v>
       </c>
       <c r="J121" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K121" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="122">
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>9324</v>
+        <v>5553</v>
       </c>
       <c r="I122" t="str">
         <v>120.00</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>4613</v>
+        <v>9901</v>
       </c>
       <c r="I123" t="str">
         <v>120.00</v>
@@ -4731,16 +4731,16 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1276</v>
+        <v>7860</v>
       </c>
       <c r="I124" t="str">
         <v>120.00</v>
       </c>
       <c r="J124" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K124" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="125">
@@ -4766,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>8396</v>
+        <v>1121</v>
       </c>
       <c r="I125" t="str">
         <v>120.00</v>
       </c>
       <c r="J125" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K125" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="126">
@@ -4801,16 +4801,16 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1787</v>
+        <v>6432</v>
       </c>
       <c r="I126" t="str">
         <v>120.00</v>
       </c>
       <c r="J126" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K126" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="127">
@@ -4836,16 +4836,16 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>9643</v>
+        <v>6066</v>
       </c>
       <c r="I127" t="str">
         <v>120.00</v>
       </c>
       <c r="J127" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K127" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="128">
@@ -4871,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>6820</v>
+        <v>2462</v>
       </c>
       <c r="I128" t="str">
         <v>120.00</v>
       </c>
       <c r="J128" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K128" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="129">
@@ -4906,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5096</v>
+        <v>5907</v>
       </c>
       <c r="I129" t="str">
         <v>120.00</v>
       </c>
       <c r="J129" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K129" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="130">
@@ -4941,16 +4941,16 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>9180</v>
+        <v>4043</v>
       </c>
       <c r="I130" t="str">
         <v>120.00</v>
       </c>
       <c r="J130" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K130" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="131">
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>7773</v>
+        <v>1372</v>
       </c>
       <c r="I131" t="str">
         <v>120.00</v>
       </c>
       <c r="J131" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K131" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="132">
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>2728</v>
+        <v>9378</v>
       </c>
       <c r="I132" t="str">
         <v>120.00</v>
       </c>
       <c r="J132" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K132" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="133">
@@ -5046,16 +5046,16 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>4631</v>
+        <v>5503</v>
       </c>
       <c r="I133" t="str">
         <v>120.00</v>
       </c>
       <c r="J133" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K133" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="134">
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>3769</v>
+        <v>1431</v>
       </c>
       <c r="I134" t="str">
         <v>120.00</v>
       </c>
       <c r="J134" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K134" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="135">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>5617</v>
+        <v>5657</v>
       </c>
       <c r="I135" t="str">
         <v>120.00</v>
@@ -5151,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>6498</v>
+        <v>4108</v>
       </c>
       <c r="I136" t="str">
         <v>120.00</v>
       </c>
       <c r="J136" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K136" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="137">
@@ -5186,16 +5186,16 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>3503</v>
+        <v>4099</v>
       </c>
       <c r="I137" t="str">
         <v>120.00</v>
       </c>
       <c r="J137" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K137" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="138">
@@ -5221,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>6256</v>
+        <v>6073</v>
       </c>
       <c r="I138" t="str">
         <v>120.00</v>
       </c>
       <c r="J138" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K138" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="139">
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>2638</v>
+        <v>9204</v>
       </c>
       <c r="I139" t="str">
         <v>120.00</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1403</v>
+        <v>2679</v>
       </c>
       <c r="I140" t="str">
         <v>120.00</v>
@@ -5326,16 +5326,16 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>7416</v>
+        <v>3610</v>
       </c>
       <c r="I141" t="str">
         <v>120.00</v>
       </c>
       <c r="J141" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K141" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="142">
@@ -5361,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>8381</v>
+        <v>6237</v>
       </c>
       <c r="I142" t="str">
         <v>120.00</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>8284</v>
+        <v>5946</v>
       </c>
       <c r="I143" t="str">
         <v>120.00</v>
@@ -5431,16 +5431,16 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>5032</v>
+        <v>4067</v>
       </c>
       <c r="I144" t="str">
         <v>120.00</v>
       </c>
       <c r="J144" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K144" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="145">
@@ -5466,16 +5466,16 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1479</v>
+        <v>8250</v>
       </c>
       <c r="I145" t="str">
         <v>120.00</v>
       </c>
       <c r="J145" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K145" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="146">
@@ -5501,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>7749</v>
+        <v>1337</v>
       </c>
       <c r="I146" t="str">
         <v>120.00</v>
       </c>
       <c r="J146" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K146" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="147">
@@ -5536,16 +5536,16 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>2717</v>
+        <v>8040</v>
       </c>
       <c r="I147" t="str">
         <v>120.00</v>
       </c>
       <c r="J147" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K147" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="148">
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>9948</v>
+        <v>7686</v>
       </c>
       <c r="I148" t="str">
         <v>120.00</v>
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>4980</v>
+        <v>8418</v>
       </c>
       <c r="I149" t="str">
         <v>120.00</v>
       </c>
       <c r="J149" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K149" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="150">
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>6608</v>
+        <v>5726</v>
       </c>
       <c r="I150" t="str">
         <v>120.00</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>6917</v>
+        <v>8427</v>
       </c>
       <c r="I151" t="str">
         <v>120.00</v>
@@ -5711,16 +5711,16 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>5309</v>
+        <v>2586</v>
       </c>
       <c r="I152" t="str">
         <v>120.00</v>
       </c>
       <c r="J152" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K152" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="153">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>4627</v>
+        <v>9558</v>
       </c>
       <c r="I153" t="str">
         <v>120.00</v>
@@ -5781,16 +5781,16 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1503</v>
+        <v>7836</v>
       </c>
       <c r="I154" t="str">
         <v>120.00</v>
       </c>
       <c r="J154" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K154" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="155">
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>5620</v>
+        <v>8575</v>
       </c>
       <c r="I155" t="str">
         <v>120.00</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>8558</v>
+        <v>8932</v>
       </c>
       <c r="I156" t="str">
         <v>120.00</v>
@@ -5886,16 +5886,16 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>7854</v>
+        <v>9890</v>
       </c>
       <c r="I157" t="str">
         <v>120.00</v>
       </c>
       <c r="J157" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K157" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="158">
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>3314</v>
+        <v>7333</v>
       </c>
       <c r="I158" t="str">
         <v>120.00</v>
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>6799</v>
+        <v>5818</v>
       </c>
       <c r="I159" t="str">
         <v>120.00</v>
@@ -5991,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>9824</v>
+        <v>4895</v>
       </c>
       <c r="I160" t="str">
         <v>120.00</v>
       </c>
       <c r="J160" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K160" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="161">
@@ -6026,16 +6026,16 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>9329</v>
+        <v>6580</v>
       </c>
       <c r="I161" t="str">
         <v>120.00</v>
       </c>
       <c r="J161" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K161" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="162">
@@ -6061,16 +6061,16 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>8507</v>
+        <v>7203</v>
       </c>
       <c r="I162" t="str">
         <v>120.00</v>
       </c>
       <c r="J162" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K162" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="163">
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>3124</v>
+        <v>1681</v>
       </c>
       <c r="I163" t="str">
         <v>120.00</v>
@@ -6131,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>2866</v>
+        <v>7584</v>
       </c>
       <c r="I164" t="str">
         <v>120.00</v>
       </c>
       <c r="J164" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K164" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="165">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>1185</v>
+        <v>9017</v>
       </c>
       <c r="I165" t="str">
         <v>120.00</v>
@@ -6201,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>8798</v>
+        <v>1648</v>
       </c>
       <c r="I166" t="str">
         <v>120.00</v>
       </c>
       <c r="J166" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K166" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="167">
@@ -6236,16 +6236,16 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>3043</v>
+        <v>8002</v>
       </c>
       <c r="I167" t="str">
         <v>90.00</v>
       </c>
       <c r="J167" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K167" t="str">
-        <v>81.00</v>
+        <v>85.50</v>
       </c>
     </row>
     <row r="168">
@@ -6271,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>7065</v>
+        <v>7718</v>
       </c>
       <c r="I168" t="str">
         <v>120.00</v>
@@ -6306,16 +6306,16 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>9014</v>
+        <v>5716</v>
       </c>
       <c r="I169" t="str">
         <v>120.00</v>
       </c>
       <c r="J169" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K169" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="170">
@@ -6341,16 +6341,16 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>7693</v>
+        <v>2589</v>
       </c>
       <c r="I170" t="str">
         <v>120.00</v>
       </c>
       <c r="J170" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K170" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="171">
@@ -6376,16 +6376,16 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>6207</v>
+        <v>5069</v>
       </c>
       <c r="I171" t="str">
         <v>120.00</v>
       </c>
       <c r="J171" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K171" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="172">
@@ -6411,16 +6411,16 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>9782</v>
+        <v>5204</v>
       </c>
       <c r="I172" t="str">
         <v>120.00</v>
       </c>
       <c r="J172" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K172" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="173">
@@ -6446,16 +6446,16 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>4333</v>
+        <v>3013</v>
       </c>
       <c r="I173" t="str">
         <v>120.00</v>
       </c>
       <c r="J173" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K173" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="174">
@@ -6481,16 +6481,16 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1819</v>
+        <v>3200</v>
       </c>
       <c r="I174" t="str">
         <v>120.00</v>
       </c>
       <c r="J174" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K174" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="175">
@@ -6516,16 +6516,16 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>3571</v>
+        <v>3365</v>
       </c>
       <c r="I175" t="str">
         <v>120.00</v>
       </c>
       <c r="J175" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K175" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="176">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>8803</v>
+        <v>1598</v>
       </c>
       <c r="I176" t="str">
         <v>120.00</v>
@@ -6586,16 +6586,16 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>7905</v>
+        <v>9983</v>
       </c>
       <c r="I177" t="str">
         <v>120.00</v>
       </c>
       <c r="J177" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K177" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="178">
@@ -6621,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>9229</v>
+        <v>7453</v>
       </c>
       <c r="I178" t="str">
         <v>120.00</v>
@@ -6656,16 +6656,16 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>4552</v>
+        <v>8575</v>
       </c>
       <c r="I179" t="str">
         <v>120.00</v>
       </c>
       <c r="J179" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K179" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="180">
@@ -6691,16 +6691,16 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1157</v>
+        <v>5722</v>
       </c>
       <c r="I180" t="str">
         <v>120.00</v>
       </c>
       <c r="J180" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K180" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="181">
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>2084</v>
+        <v>3864</v>
       </c>
       <c r="I181" t="str">
         <v>120.00</v>
@@ -6761,16 +6761,16 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>7671</v>
+        <v>4534</v>
       </c>
       <c r="I182" t="str">
         <v>120.00</v>
       </c>
       <c r="J182" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K182" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="183">
@@ -6796,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>5760</v>
+        <v>9139</v>
       </c>
       <c r="I183" t="str">
         <v>120.00</v>
       </c>
       <c r="J183" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K183" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="184">
@@ -6831,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>5319</v>
+        <v>5414</v>
       </c>
       <c r="I184" t="str">
         <v>120.00</v>
@@ -6866,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>2902</v>
+        <v>5400</v>
       </c>
       <c r="I185" t="str">
         <v>120.00</v>
@@ -6901,16 +6901,16 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>5410</v>
+        <v>2592</v>
       </c>
       <c r="I186" t="str">
         <v>120.00</v>
       </c>
       <c r="J186" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K186" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="187">
@@ -6936,16 +6936,16 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>7729</v>
+        <v>6524</v>
       </c>
       <c r="I187" t="str">
         <v>120.00</v>
       </c>
       <c r="J187" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K187" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="188">
@@ -6971,16 +6971,16 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>6639</v>
+        <v>7242</v>
       </c>
       <c r="I188" t="str">
         <v>120.00</v>
       </c>
       <c r="J188" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K188" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="189">
@@ -7006,16 +7006,16 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>9731</v>
+        <v>7705</v>
       </c>
       <c r="I189" t="str">
         <v>90.00</v>
       </c>
       <c r="J189" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K189" t="str">
-        <v>90.00</v>
+        <v>85.50</v>
       </c>
     </row>
     <row r="190">
@@ -7041,16 +7041,16 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>3509</v>
+        <v>7254</v>
       </c>
       <c r="I190" t="str">
         <v>120.00</v>
       </c>
       <c r="J190" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K190" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="191">
@@ -7076,16 +7076,16 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>2532</v>
+        <v>8168</v>
       </c>
       <c r="I191" t="str">
         <v>120.00</v>
       </c>
       <c r="J191" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K191" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="192">
@@ -7111,16 +7111,16 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>3823</v>
+        <v>1240</v>
       </c>
       <c r="I192" t="str">
         <v>120.00</v>
       </c>
       <c r="J192" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K192" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="193">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>1941</v>
+        <v>5872</v>
       </c>
       <c r="I193" t="str">
         <v>120.00</v>
@@ -7181,16 +7181,16 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>6610</v>
+        <v>4094</v>
       </c>
       <c r="I194" t="str">
         <v>120.00</v>
       </c>
       <c r="J194" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K194" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="195">
@@ -7216,16 +7216,16 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>3704</v>
+        <v>3956</v>
       </c>
       <c r="I195" t="str">
         <v>120.00</v>
       </c>
       <c r="J195" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K195" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="196">
@@ -7251,16 +7251,16 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>6445</v>
+        <v>8934</v>
       </c>
       <c r="I196" t="str">
         <v>120.00</v>
       </c>
       <c r="J196" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K196" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="197">
@@ -7286,7 +7286,7 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>6193</v>
+        <v>2589</v>
       </c>
       <c r="I197" t="str">
         <v>120.00</v>
@@ -7321,16 +7321,16 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>5097</v>
+        <v>2542</v>
       </c>
       <c r="I198" t="str">
         <v>120.00</v>
       </c>
       <c r="J198" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K198" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="199">
@@ -7356,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>2181</v>
+        <v>5534</v>
       </c>
       <c r="I199" t="str">
         <v>120.00</v>
       </c>
       <c r="J199" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K199" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="200">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>1376</v>
+        <v>2688</v>
       </c>
       <c r="I200" t="str">
         <v>120.00</v>
@@ -7426,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>8007</v>
+        <v>7578</v>
       </c>
       <c r="I201" t="str">
         <v>120.00</v>
       </c>
       <c r="J201" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K201" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="202">
@@ -7461,16 +7461,16 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>9999</v>
+        <v>5896</v>
       </c>
       <c r="I202" t="str">
         <v>120.00</v>
       </c>
       <c r="J202" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K202" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="203">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>4654</v>
+        <v>2837</v>
       </c>
       <c r="I203" t="str">
         <v>120.00</v>
@@ -7531,16 +7531,16 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>8441</v>
+        <v>5078</v>
       </c>
       <c r="I204" t="str">
         <v>120.00</v>
       </c>
       <c r="J204" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K204" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="205">
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>2894</v>
+        <v>4537</v>
       </c>
       <c r="I205" t="str">
         <v>120.00</v>
@@ -7601,16 +7601,16 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>2569</v>
+        <v>5500</v>
       </c>
       <c r="I206" t="str">
         <v>120.00</v>
       </c>
       <c r="J206" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K206" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="207">
@@ -7636,16 +7636,16 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>6791</v>
+        <v>3974</v>
       </c>
       <c r="I207" t="str">
         <v>120.00</v>
       </c>
       <c r="J207" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K207" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="208">
@@ -7671,16 +7671,16 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1642</v>
+        <v>1117</v>
       </c>
       <c r="I208" t="str">
         <v>120.00</v>
       </c>
       <c r="J208" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K208" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="209">
@@ -7706,7 +7706,7 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>8655</v>
+        <v>1972</v>
       </c>
       <c r="I209" t="str">
         <v>120.00</v>
@@ -7741,16 +7741,16 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>6009</v>
+        <v>2752</v>
       </c>
       <c r="I210" t="str">
         <v>120.00</v>
       </c>
       <c r="J210" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K210" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="211">
@@ -7776,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>1457</v>
+        <v>5498</v>
       </c>
       <c r="I211" t="str">
         <v>90.00</v>
@@ -7811,16 +7811,16 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>6448</v>
+        <v>2828</v>
       </c>
       <c r="I212" t="str">
         <v>120.00</v>
       </c>
       <c r="J212" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K212" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="213">
@@ -7846,16 +7846,16 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>9552</v>
+        <v>2399</v>
       </c>
       <c r="I213" t="str">
         <v>120.00</v>
       </c>
       <c r="J213" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K213" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="214">
@@ -7881,16 +7881,16 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>9533</v>
+        <v>3187</v>
       </c>
       <c r="I214" t="str">
         <v>120.00</v>
       </c>
       <c r="J214" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K214" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="215">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>5992</v>
+        <v>1574</v>
       </c>
       <c r="I215" t="str">
         <v>120.00</v>
@@ -7951,16 +7951,16 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>2297</v>
+        <v>3684</v>
       </c>
       <c r="I216" t="str">
         <v>120.00</v>
       </c>
       <c r="J216" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K216" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="217">
@@ -7986,16 +7986,16 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>3522</v>
+        <v>8662</v>
       </c>
       <c r="I217" t="str">
         <v>120.00</v>
       </c>
       <c r="J217" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K217" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="218">
@@ -8021,16 +8021,16 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>2648</v>
+        <v>8402</v>
       </c>
       <c r="I218" t="str">
         <v>120.00</v>
       </c>
       <c r="J218" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K218" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="219">
@@ -8056,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>7219</v>
+        <v>7614</v>
       </c>
       <c r="I219" t="str">
         <v>120.00</v>
@@ -8091,16 +8091,16 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>8996</v>
+        <v>7569</v>
       </c>
       <c r="I220" t="str">
         <v>120.00</v>
       </c>
       <c r="J220" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K220" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="221">
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>3663</v>
+        <v>3156</v>
       </c>
       <c r="I221" t="str">
         <v>120.00</v>
@@ -8161,16 +8161,16 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>7366</v>
+        <v>8066</v>
       </c>
       <c r="I222" t="str">
         <v>120.00</v>
       </c>
       <c r="J222" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K222" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="223">
@@ -8196,16 +8196,16 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>1750</v>
+        <v>1450</v>
       </c>
       <c r="I223" t="str">
         <v>120.00</v>
       </c>
       <c r="J223" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K223" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="224">
@@ -8231,16 +8231,16 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>6545</v>
+        <v>8924</v>
       </c>
       <c r="I224" t="str">
         <v>120.00</v>
       </c>
       <c r="J224" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K224" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="225">
@@ -8266,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>7246</v>
+        <v>7212</v>
       </c>
       <c r="I225" t="str">
         <v>120.00</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>7180</v>
+        <v>2990</v>
       </c>
       <c r="I226" t="str">
         <v>120.00</v>
@@ -8336,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1048</v>
+        <v>1918</v>
       </c>
       <c r="I227" t="str">
         <v>120.00</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>3624</v>
+        <v>6870</v>
       </c>
       <c r="I228" t="str">
         <v>120.00</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>4761</v>
+        <v>6103</v>
       </c>
       <c r="I229" t="str">
         <v>120.00</v>
@@ -8441,16 +8441,16 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>2893</v>
+        <v>8265</v>
       </c>
       <c r="I230" t="str">
         <v>120.00</v>
       </c>
       <c r="J230" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K230" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="231">
@@ -8476,16 +8476,16 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>8666</v>
+        <v>4236</v>
       </c>
       <c r="I231" t="str">
         <v>120.00</v>
       </c>
       <c r="J231" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K231" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="232">
@@ -8511,16 +8511,16 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>2272</v>
+        <v>1540</v>
       </c>
       <c r="I232" t="str">
         <v>120.00</v>
       </c>
       <c r="J232" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K232" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="233">
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>7685</v>
+        <v>2980</v>
       </c>
       <c r="I233" t="str">
         <v>120.00</v>
       </c>
       <c r="J233" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K233" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="234">
@@ -8581,16 +8581,16 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>3373</v>
+        <v>5451</v>
       </c>
       <c r="I234" t="str">
         <v>90.00</v>
       </c>
       <c r="J234" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K234" t="str">
-        <v>90.00</v>
+        <v>81.00</v>
       </c>
     </row>
     <row r="235">
@@ -8616,16 +8616,16 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>8119</v>
+        <v>6758</v>
       </c>
       <c r="I235" t="str">
         <v>120.00</v>
       </c>
       <c r="J235" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K235" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="236">
@@ -8651,16 +8651,16 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>5680</v>
+        <v>8616</v>
       </c>
       <c r="I236" t="str">
         <v>120.00</v>
       </c>
       <c r="J236" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K236" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="237">
@@ -8686,16 +8686,16 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>1761</v>
+        <v>9807</v>
       </c>
       <c r="I237" t="str">
         <v>120.00</v>
       </c>
       <c r="J237" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K237" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="238">
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>4704</v>
+        <v>9778</v>
       </c>
       <c r="I238" t="str">
         <v>120.00</v>
@@ -8756,16 +8756,16 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>7206</v>
+        <v>2975</v>
       </c>
       <c r="I239" t="str">
         <v>120.00</v>
       </c>
       <c r="J239" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K239" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="240">
@@ -8791,16 +8791,16 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>6196</v>
+        <v>7320</v>
       </c>
       <c r="I240" t="str">
         <v>120.00</v>
       </c>
       <c r="J240" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K240" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="241">
@@ -8826,16 +8826,16 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>2284</v>
+        <v>3693</v>
       </c>
       <c r="I241" t="str">
         <v>120.00</v>
       </c>
       <c r="J241" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K241" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="242">
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>3891</v>
+        <v>2633</v>
       </c>
       <c r="I242" t="str">
         <v>120.00</v>
@@ -8896,16 +8896,16 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>5353</v>
+        <v>2174</v>
       </c>
       <c r="I243" t="str">
         <v>120.00</v>
       </c>
       <c r="J243" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K243" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="244">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>7933</v>
+        <v>2201</v>
       </c>
       <c r="I244" t="str">
         <v>120.00</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>1334</v>
+        <v>5092</v>
       </c>
       <c r="I245" t="str">
         <v>120.00</v>
@@ -9001,16 +9001,16 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>1871</v>
+        <v>3277</v>
       </c>
       <c r="I246" t="str">
         <v>120.00</v>
       </c>
       <c r="J246" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K246" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="247">
@@ -9036,16 +9036,16 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>2212</v>
+        <v>1643</v>
       </c>
       <c r="I247" t="str">
         <v>120.00</v>
       </c>
       <c r="J247" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K247" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="248">
@@ -9071,16 +9071,16 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>4126</v>
+        <v>8740</v>
       </c>
       <c r="I248" t="str">
         <v>120.00</v>
       </c>
       <c r="J248" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K248" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="249">
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>6922</v>
+        <v>9592</v>
       </c>
       <c r="I249" t="str">
         <v>120.00</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>1118</v>
+        <v>1975</v>
       </c>
       <c r="I250" t="str">
         <v>120.00</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>4026</v>
+        <v>8224</v>
       </c>
       <c r="I251" t="str">
         <v>120.00</v>
       </c>
       <c r="J251" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K251" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="252">
@@ -9211,16 +9211,16 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>2920</v>
+        <v>9564</v>
       </c>
       <c r="I252" t="str">
         <v>120.00</v>
       </c>
       <c r="J252" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K252" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="253">
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>7104</v>
+        <v>9453</v>
       </c>
       <c r="I253" t="str">
         <v>120.00</v>
       </c>
       <c r="J253" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K253" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="254">
@@ -9281,16 +9281,16 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>4653</v>
+        <v>6339</v>
       </c>
       <c r="I254" t="str">
         <v>120.00</v>
       </c>
       <c r="J254" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K254" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="255">
@@ -9316,16 +9316,16 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>5918</v>
+        <v>4510</v>
       </c>
       <c r="I255" t="str">
         <v>120.00</v>
       </c>
       <c r="J255" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K255" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="256">
@@ -9351,16 +9351,16 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>9195</v>
+        <v>2268</v>
       </c>
       <c r="I256" t="str">
         <v>120.00</v>
       </c>
       <c r="J256" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K256" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="257">
@@ -9386,16 +9386,16 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>7487</v>
+        <v>9628</v>
       </c>
       <c r="I257" t="str">
         <v>120.00</v>
       </c>
       <c r="J257" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K257" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="258">
@@ -9421,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>3973</v>
+        <v>8646</v>
       </c>
       <c r="I258" t="str">
         <v>120.00</v>
       </c>
       <c r="J258" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K258" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="259">
@@ -9456,16 +9456,16 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>4735</v>
+        <v>4800</v>
       </c>
       <c r="I259" t="str">
         <v>120.00</v>
       </c>
       <c r="J259" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K259" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="260">
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>7278</v>
+        <v>1768</v>
       </c>
       <c r="I260" t="str">
         <v>90.00</v>
       </c>
       <c r="J260" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K260" t="str">
-        <v>85.50</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="261">
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>6976</v>
+        <v>3892</v>
       </c>
       <c r="I261" t="str">
         <v>120.00</v>
@@ -9561,16 +9561,16 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>3970</v>
+        <v>1344</v>
       </c>
       <c r="I262" t="str">
         <v>120.00</v>
       </c>
       <c r="J262" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K262" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="263">
@@ -9596,16 +9596,16 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>1385</v>
+        <v>2756</v>
       </c>
       <c r="I263" t="str">
         <v>120.00</v>
       </c>
       <c r="J263" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K263" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="264">
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>8180</v>
+        <v>3683</v>
       </c>
       <c r="I264" t="str">
         <v>120.00</v>
@@ -9666,16 +9666,16 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>5880</v>
+        <v>5749</v>
       </c>
       <c r="I265" t="str">
         <v>120.00</v>
       </c>
       <c r="J265" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K265" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="266">
@@ -9701,16 +9701,16 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>5022</v>
+        <v>4527</v>
       </c>
       <c r="I266" t="str">
         <v>120.00</v>
       </c>
       <c r="J266" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K266" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="267">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>3454</v>
+        <v>6712</v>
       </c>
       <c r="I267" t="str">
         <v>120.00</v>
@@ -9771,16 +9771,16 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>7509</v>
+        <v>7017</v>
       </c>
       <c r="I268" t="str">
         <v>120.00</v>
       </c>
       <c r="J268" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K268" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="269">
@@ -9806,16 +9806,16 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>5062</v>
+        <v>9711</v>
       </c>
       <c r="I269" t="str">
         <v>120.00</v>
       </c>
       <c r="J269" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K269" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="270">
@@ -9841,16 +9841,16 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>4127</v>
+        <v>1335</v>
       </c>
       <c r="I270" t="str">
         <v>120.00</v>
       </c>
       <c r="J270" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K270" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="271">
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>7694</v>
+        <v>5132</v>
       </c>
       <c r="I271" t="str">
         <v>120.00</v>
@@ -9911,16 +9911,16 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>5737</v>
+        <v>5956</v>
       </c>
       <c r="I272" t="str">
         <v>120.00</v>
       </c>
       <c r="J272" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K272" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="273">
@@ -9946,16 +9946,16 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>6335</v>
+        <v>5906</v>
       </c>
       <c r="I273" t="str">
         <v>120.00</v>
       </c>
       <c r="J273" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K273" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="274">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>6557</v>
+        <v>2750</v>
       </c>
       <c r="I274" t="str">
         <v>120.00</v>
@@ -10016,16 +10016,16 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>7512</v>
+        <v>6542</v>
       </c>
       <c r="I275" t="str">
         <v>120.00</v>
       </c>
       <c r="J275" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K275" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="276">
@@ -10051,16 +10051,16 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>1534</v>
+        <v>1273</v>
       </c>
       <c r="I276" t="str">
         <v>120.00</v>
       </c>
       <c r="J276" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K276" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="277">
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>7628</v>
+        <v>2637</v>
       </c>
       <c r="I277" t="str">
         <v>120.00</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>7113</v>
+        <v>3478</v>
       </c>
       <c r="I278" t="str">
         <v>120.00</v>
@@ -10156,16 +10156,16 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>4906</v>
+        <v>1740</v>
       </c>
       <c r="I279" t="str">
         <v>120.00</v>
       </c>
       <c r="J279" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K279" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="280">
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>5271</v>
+        <v>3632</v>
       </c>
       <c r="I280" t="str">
         <v>120.00</v>
       </c>
       <c r="J280" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K280" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="281">
@@ -10226,16 +10226,16 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>6409</v>
+        <v>6042</v>
       </c>
       <c r="I281" t="str">
         <v>120.00</v>
       </c>
       <c r="J281" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K281" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="282">
@@ -10261,16 +10261,16 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>6157</v>
+        <v>9791</v>
       </c>
       <c r="I282" t="str">
         <v>120.00</v>
       </c>
       <c r="J282" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K282" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="283">
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>7708</v>
+        <v>7297</v>
       </c>
       <c r="I283" t="str">
         <v>120.00</v>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>3474</v>
+        <v>6986</v>
       </c>
       <c r="I284" t="str">
         <v>120.00</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>6417</v>
+        <v>6114</v>
       </c>
       <c r="I285" t="str">
         <v>120.00</v>
       </c>
       <c r="J285" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K285" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="286">
@@ -10401,16 +10401,16 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <v>2463</v>
+        <v>7874</v>
       </c>
       <c r="I286" t="str">
         <v>120.00</v>
       </c>
       <c r="J286" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K286" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="287">
@@ -10436,16 +10436,16 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>5379</v>
+        <v>5946</v>
       </c>
       <c r="I287" t="str">
         <v>90.00</v>
       </c>
       <c r="J287" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K287" t="str">
-        <v>85.50</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="288">
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <v>3636</v>
+        <v>3464</v>
       </c>
       <c r="I288" t="str">
         <v>120.00</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>2944</v>
+        <v>9956</v>
       </c>
       <c r="I289" t="str">
         <v>120.00</v>
       </c>
       <c r="J289" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K289" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="290">
@@ -10541,16 +10541,16 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>8664</v>
+        <v>6330</v>
       </c>
       <c r="I290" t="str">
         <v>120.00</v>
       </c>
       <c r="J290" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K290" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="291">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>2475</v>
+        <v>8268</v>
       </c>
       <c r="I291" t="str">
         <v>120.00</v>
@@ -10611,16 +10611,16 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>2644</v>
+        <v>7591</v>
       </c>
       <c r="I292" t="str">
         <v>120.00</v>
       </c>
       <c r="J292" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K292" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="293">
@@ -10646,16 +10646,16 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <v>7689</v>
+        <v>1042</v>
       </c>
       <c r="I293" t="str">
         <v>120.00</v>
       </c>
       <c r="J293" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K293" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="294">
@@ -10681,16 +10681,16 @@
         <v>0</v>
       </c>
       <c r="H294">
-        <v>4509</v>
+        <v>9295</v>
       </c>
       <c r="I294" t="str">
         <v>120.00</v>
       </c>
       <c r="J294" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K294" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="295">
@@ -10716,16 +10716,16 @@
         <v>0</v>
       </c>
       <c r="H295">
-        <v>1517</v>
+        <v>3002</v>
       </c>
       <c r="I295" t="str">
         <v>120.00</v>
       </c>
       <c r="J295" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K295" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="296">
@@ -10751,16 +10751,16 @@
         <v>0</v>
       </c>
       <c r="H296">
-        <v>2678</v>
+        <v>3953</v>
       </c>
       <c r="I296" t="str">
         <v>120.00</v>
       </c>
       <c r="J296" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K296" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="297">
@@ -10786,16 +10786,16 @@
         <v>0</v>
       </c>
       <c r="H297">
-        <v>3223</v>
+        <v>2269</v>
       </c>
       <c r="I297" t="str">
         <v>120.00</v>
       </c>
       <c r="J297" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K297" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="298">
@@ -10821,16 +10821,16 @@
         <v>0</v>
       </c>
       <c r="H298">
-        <v>7495</v>
+        <v>5418</v>
       </c>
       <c r="I298" t="str">
         <v>120.00</v>
       </c>
       <c r="J298" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K298" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="299">
@@ -10856,16 +10856,16 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>8368</v>
+        <v>2805</v>
       </c>
       <c r="I299" t="str">
         <v>120.00</v>
       </c>
       <c r="J299" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K299" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="300">
@@ -10891,16 +10891,16 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>9535</v>
+        <v>5841</v>
       </c>
       <c r="I300" t="str">
         <v>120.00</v>
       </c>
       <c r="J300" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K300" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="301">
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>4967</v>
+        <v>7955</v>
       </c>
       <c r="I301" t="str">
         <v>120.00</v>
@@ -10961,16 +10961,16 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>5930</v>
+        <v>5488</v>
       </c>
       <c r="I302" t="str">
         <v>120.00</v>
       </c>
       <c r="J302" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K302" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="303">
@@ -10996,16 +10996,16 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <v>7109</v>
+        <v>4877</v>
       </c>
       <c r="I303" t="str">
         <v>120.00</v>
       </c>
       <c r="J303" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K303" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="304">
@@ -11031,16 +11031,16 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <v>5563</v>
+        <v>1316</v>
       </c>
       <c r="I304" t="str">
         <v>120.00</v>
       </c>
       <c r="J304" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K304" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="305">
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>8147</v>
+        <v>8046</v>
       </c>
       <c r="I305" t="str">
         <v>120.00</v>
       </c>
       <c r="J305" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K305" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="306">
@@ -11101,16 +11101,16 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>5400</v>
+        <v>6989</v>
       </c>
       <c r="I306" t="str">
         <v>120.00</v>
       </c>
       <c r="J306" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K306" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="307">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>1123</v>
+        <v>7635</v>
       </c>
       <c r="I307" t="str">
         <v>120.00</v>
@@ -11171,16 +11171,16 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>7992</v>
+        <v>9201</v>
       </c>
       <c r="I308" t="str">
         <v>120.00</v>
       </c>
       <c r="J308" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K308" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="309">
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="H309">
-        <v>2243</v>
+        <v>9327</v>
       </c>
       <c r="I309" t="str">
         <v>120.00</v>
@@ -11241,16 +11241,16 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>4834</v>
+        <v>5139</v>
       </c>
       <c r="I310" t="str">
         <v>120.00</v>
       </c>
       <c r="J310" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K310" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="311">
@@ -11276,16 +11276,16 @@
         <v>0</v>
       </c>
       <c r="H311">
-        <v>4573</v>
+        <v>6124</v>
       </c>
       <c r="I311" t="str">
         <v>120.00</v>
       </c>
       <c r="J311" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K311" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="312">
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="H312">
-        <v>1022</v>
+        <v>6311</v>
       </c>
       <c r="I312" t="str">
         <v>120.00</v>
       </c>
       <c r="J312" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K312" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="313">
@@ -11346,16 +11346,16 @@
         <v>0</v>
       </c>
       <c r="H313">
-        <v>6685</v>
+        <v>1672</v>
       </c>
       <c r="I313" t="str">
         <v>120.00</v>
       </c>
       <c r="J313" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K313" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="314">
@@ -11381,16 +11381,16 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <v>4728</v>
+        <v>8839</v>
       </c>
       <c r="I314" t="str">
         <v>120.00</v>
       </c>
       <c r="J314" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K314" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="315">
@@ -11416,16 +11416,16 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="I315" t="str">
         <v>120.00</v>
       </c>
       <c r="J315" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K315" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="316">
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>4509</v>
+        <v>1419</v>
       </c>
       <c r="I316" t="str">
         <v>90.00</v>
@@ -11486,16 +11486,16 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>9941</v>
+        <v>9389</v>
       </c>
       <c r="I317" t="str">
         <v>120.00</v>
       </c>
       <c r="J317" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K317" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="318">
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>4667</v>
+        <v>4999</v>
       </c>
       <c r="I318" t="str">
         <v>120.00</v>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>4213</v>
+        <v>7590</v>
       </c>
       <c r="I319" t="str">
         <v>120.00</v>
@@ -11591,16 +11591,16 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>6229</v>
+        <v>2620</v>
       </c>
       <c r="I320" t="str">
         <v>120.00</v>
       </c>
       <c r="J320" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K320" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="321">
@@ -11626,16 +11626,16 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <v>7923</v>
+        <v>2169</v>
       </c>
       <c r="I321" t="str">
         <v>120.00</v>
       </c>
       <c r="J321" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K321" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="322">
@@ -11661,16 +11661,16 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <v>8888</v>
+        <v>7492</v>
       </c>
       <c r="I322" t="str">
         <v>120.00</v>
       </c>
       <c r="J322" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K322" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="323">
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <v>1709</v>
+        <v>4195</v>
       </c>
       <c r="I323" t="str">
         <v>120.00</v>
@@ -11731,16 +11731,16 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>6158</v>
+        <v>7405</v>
       </c>
       <c r="I324" t="str">
         <v>120.00</v>
       </c>
       <c r="J324" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K324" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="325">
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>3023</v>
+        <v>3069</v>
       </c>
       <c r="I325" t="str">
         <v>120.00</v>
@@ -11801,7 +11801,7 @@
         <v>0</v>
       </c>
       <c r="H326">
-        <v>4682</v>
+        <v>6965</v>
       </c>
       <c r="I326" t="str">
         <v>120.00</v>
@@ -11836,16 +11836,16 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>3965</v>
+        <v>6225</v>
       </c>
       <c r="I327" t="str">
         <v>120.00</v>
       </c>
       <c r="J327" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K327" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="328">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="H328">
-        <v>5854</v>
+        <v>7194</v>
       </c>
       <c r="I328" t="str">
         <v>120.00</v>
@@ -11906,16 +11906,16 @@
         <v>0</v>
       </c>
       <c r="H329">
-        <v>1843</v>
+        <v>8334</v>
       </c>
       <c r="I329" t="str">
         <v>120.00</v>
       </c>
       <c r="J329" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K329" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="330">
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="H330">
-        <v>9571</v>
+        <v>2982</v>
       </c>
       <c r="I330" t="str">
         <v>120.00</v>
@@ -11976,16 +11976,16 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>8396</v>
+        <v>6682</v>
       </c>
       <c r="I331" t="str">
         <v>120.00</v>
       </c>
       <c r="J331" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K331" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="332">
@@ -12011,16 +12011,16 @@
         <v>0</v>
       </c>
       <c r="H332">
-        <v>5091</v>
+        <v>2216</v>
       </c>
       <c r="I332" t="str">
         <v>120.00</v>
       </c>
       <c r="J332" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K332" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="333">
@@ -12046,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="H333">
-        <v>9382</v>
+        <v>9878</v>
       </c>
       <c r="I333" t="str">
         <v>120.00</v>
@@ -12081,16 +12081,16 @@
         <v>0</v>
       </c>
       <c r="H334">
-        <v>9365</v>
+        <v>9823</v>
       </c>
       <c r="I334" t="str">
         <v>120.00</v>
       </c>
       <c r="J334" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K334" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="335">
@@ -12116,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>8096</v>
+        <v>6658</v>
       </c>
       <c r="I335" t="str">
         <v>120.00</v>
@@ -12151,16 +12151,16 @@
         <v>0</v>
       </c>
       <c r="H336">
-        <v>7081</v>
+        <v>3865</v>
       </c>
       <c r="I336" t="str">
         <v>120.00</v>
       </c>
       <c r="J336" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K336" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="337">
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="H337">
-        <v>7974</v>
+        <v>4592</v>
       </c>
       <c r="I337" t="str">
         <v>120.00</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="H338">
-        <v>1738</v>
+        <v>6995</v>
       </c>
       <c r="I338" t="str">
         <v>120.00</v>
@@ -12256,7 +12256,7 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>1229</v>
+        <v>6824</v>
       </c>
       <c r="I339" t="str">
         <v>120.00</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <v>2959</v>
+        <v>9116</v>
       </c>
       <c r="I340" t="str">
         <v>120.00</v>
@@ -12326,16 +12326,16 @@
         <v>0</v>
       </c>
       <c r="H341">
-        <v>5040</v>
+        <v>5896</v>
       </c>
       <c r="I341" t="str">
         <v>120.00</v>
       </c>
       <c r="J341" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K341" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="342">
@@ -12361,16 +12361,16 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <v>6022</v>
+        <v>5935</v>
       </c>
       <c r="I342" t="str">
         <v>120.00</v>
       </c>
       <c r="J342" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K342" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="343">
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="H343">
-        <v>8049</v>
+        <v>3782</v>
       </c>
       <c r="I343" t="str">
         <v>120.00</v>
@@ -12431,16 +12431,16 @@
         <v>0</v>
       </c>
       <c r="H344">
-        <v>4994</v>
+        <v>6749</v>
       </c>
       <c r="I344" t="str">
         <v>120.00</v>
       </c>
       <c r="J344" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K344" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="345">
@@ -12466,16 +12466,16 @@
         <v>0</v>
       </c>
       <c r="H345">
-        <v>1520</v>
+        <v>2537</v>
       </c>
       <c r="I345" t="str">
         <v>120.00</v>
       </c>
       <c r="J345" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K345" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="346">
@@ -12501,16 +12501,16 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <v>1759</v>
+        <v>8325</v>
       </c>
       <c r="I346" t="str">
         <v>120.00</v>
       </c>
       <c r="J346" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K346" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="347">
@@ -12536,16 +12536,16 @@
         <v>0</v>
       </c>
       <c r="H347">
-        <v>3373</v>
+        <v>5102</v>
       </c>
       <c r="I347" t="str">
         <v>120.00</v>
       </c>
       <c r="J347" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K347" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="348">
@@ -12571,16 +12571,16 @@
         <v>0</v>
       </c>
       <c r="H348">
-        <v>8230</v>
+        <v>2034</v>
       </c>
       <c r="I348" t="str">
         <v>120.00</v>
       </c>
       <c r="J348" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K348" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="349">
@@ -12606,16 +12606,16 @@
         <v>0</v>
       </c>
       <c r="H349">
-        <v>5569</v>
+        <v>7120</v>
       </c>
       <c r="I349" t="str">
         <v>120.00</v>
       </c>
       <c r="J349" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K349" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="350">
@@ -12641,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="H350">
-        <v>7603</v>
+        <v>7474</v>
       </c>
       <c r="I350" t="str">
         <v>120.00</v>
@@ -12676,16 +12676,16 @@
         <v>0</v>
       </c>
       <c r="H351">
-        <v>3710</v>
+        <v>8856</v>
       </c>
       <c r="I351" t="str">
         <v>120.00</v>
       </c>
       <c r="J351" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K351" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="352">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="H352">
-        <v>8922</v>
+        <v>6216</v>
       </c>
       <c r="I352" t="str">
         <v>90.00</v>
@@ -12746,16 +12746,16 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>1152</v>
+        <v>5504</v>
       </c>
       <c r="I353" t="str">
         <v>120.00</v>
       </c>
       <c r="J353" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K353" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="354">
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="H354">
-        <v>9380</v>
+        <v>3497</v>
       </c>
       <c r="I354" t="str">
         <v>120.00</v>
@@ -12816,7 +12816,7 @@
         <v>0</v>
       </c>
       <c r="H355">
-        <v>9594</v>
+        <v>9267</v>
       </c>
       <c r="I355" t="str">
         <v>120.00</v>
@@ -12851,16 +12851,16 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <v>1256</v>
+        <v>2403</v>
       </c>
       <c r="I356" t="str">
         <v>120.00</v>
       </c>
       <c r="J356" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K356" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="357">
@@ -12886,16 +12886,16 @@
         <v>0</v>
       </c>
       <c r="H357">
-        <v>3527</v>
+        <v>1306</v>
       </c>
       <c r="I357" t="str">
         <v>120.00</v>
       </c>
       <c r="J357" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K357" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="358">
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="H358">
-        <v>3848</v>
+        <v>1764</v>
       </c>
       <c r="I358" t="str">
         <v>120.00</v>
@@ -12956,7 +12956,7 @@
         <v>0</v>
       </c>
       <c r="H359">
-        <v>7511</v>
+        <v>6635</v>
       </c>
       <c r="I359" t="str">
         <v>120.00</v>
@@ -12991,16 +12991,16 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <v>1336</v>
+        <v>5644</v>
       </c>
       <c r="I360" t="str">
         <v>120.00</v>
       </c>
       <c r="J360" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K360" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="361">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="H361">
-        <v>1547</v>
+        <v>7479</v>
       </c>
       <c r="I361" t="str">
         <v>120.00</v>
@@ -13061,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="H362">
-        <v>5842</v>
+        <v>7458</v>
       </c>
       <c r="I362" t="str">
         <v>120.00</v>
@@ -13096,16 +13096,16 @@
         <v>0</v>
       </c>
       <c r="H363">
-        <v>2902</v>
+        <v>8822</v>
       </c>
       <c r="I363" t="str">
         <v>120.00</v>
       </c>
       <c r="J363" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K363" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="364">
@@ -13131,16 +13131,16 @@
         <v>0</v>
       </c>
       <c r="H364">
-        <v>6445</v>
+        <v>6648</v>
       </c>
       <c r="I364" t="str">
         <v>120.00</v>
       </c>
       <c r="J364" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K364" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="365">
@@ -13166,16 +13166,16 @@
         <v>0</v>
       </c>
       <c r="H365">
-        <v>7032</v>
+        <v>9948</v>
       </c>
       <c r="I365" t="str">
         <v>120.00</v>
       </c>
       <c r="J365" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K365" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="366">
@@ -13201,16 +13201,16 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <v>3820</v>
+        <v>3384</v>
       </c>
       <c r="I366" t="str">
         <v>120.00</v>
       </c>
       <c r="J366" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K366" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="367">
@@ -13236,16 +13236,16 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>3934</v>
+        <v>4180</v>
       </c>
       <c r="I367" t="str">
         <v>120.00</v>
       </c>
       <c r="J367" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K367" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="368">
@@ -13271,16 +13271,16 @@
         <v>0</v>
       </c>
       <c r="H368">
-        <v>5148</v>
+        <v>5742</v>
       </c>
       <c r="I368" t="str">
         <v>120.00</v>
       </c>
       <c r="J368" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K368" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="369">
@@ -13306,16 +13306,16 @@
         <v>0</v>
       </c>
       <c r="H369">
-        <v>1429</v>
+        <v>1739</v>
       </c>
       <c r="I369" t="str">
         <v>120.00</v>
       </c>
       <c r="J369" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K369" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="370">
@@ -13341,7 +13341,7 @@
         <v>0</v>
       </c>
       <c r="H370">
-        <v>1701</v>
+        <v>8925</v>
       </c>
       <c r="I370" t="str">
         <v>120.00</v>
@@ -13376,16 +13376,16 @@
         <v>0</v>
       </c>
       <c r="H371">
-        <v>3326</v>
+        <v>6370</v>
       </c>
       <c r="I371" t="str">
         <v>120.00</v>
       </c>
       <c r="J371" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K371" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="372">
@@ -13411,16 +13411,16 @@
         <v>0</v>
       </c>
       <c r="H372">
-        <v>7926</v>
+        <v>9235</v>
       </c>
       <c r="I372" t="str">
         <v>120.00</v>
       </c>
       <c r="J372" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K372" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="373">
@@ -13446,16 +13446,16 @@
         <v>0</v>
       </c>
       <c r="H373">
-        <v>7481</v>
+        <v>8723</v>
       </c>
       <c r="I373" t="str">
         <v>120.00</v>
       </c>
       <c r="J373" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K373" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="374">
@@ -13481,16 +13481,16 @@
         <v>0</v>
       </c>
       <c r="H374">
-        <v>5474</v>
+        <v>3468</v>
       </c>
       <c r="I374" t="str">
         <v>120.00</v>
       </c>
       <c r="J374" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K374" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="375">
@@ -13516,16 +13516,16 @@
         <v>0</v>
       </c>
       <c r="H375">
-        <v>5888</v>
+        <v>4997</v>
       </c>
       <c r="I375" t="str">
         <v>120.00</v>
       </c>
       <c r="J375" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K375" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="376">
@@ -13551,16 +13551,16 @@
         <v>0</v>
       </c>
       <c r="H376">
-        <v>9766</v>
+        <v>6524</v>
       </c>
       <c r="I376" t="str">
         <v>120.00</v>
       </c>
       <c r="J376" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K376" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="377">
@@ -13586,16 +13586,16 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>9945</v>
+        <v>9869</v>
       </c>
       <c r="I377" t="str">
         <v>120.00</v>
       </c>
       <c r="J377" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K377" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="378">
@@ -13621,16 +13621,16 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <v>2978</v>
+        <v>4605</v>
       </c>
       <c r="I378" t="str">
         <v>120.00</v>
       </c>
       <c r="J378" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K378" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="379">
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <v>1392</v>
+        <v>4003</v>
       </c>
       <c r="I379" t="str">
         <v>120.00</v>
       </c>
       <c r="J379" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K379" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="380">
@@ -13691,16 +13691,16 @@
         <v>0</v>
       </c>
       <c r="H380">
-        <v>3717</v>
+        <v>3085</v>
       </c>
       <c r="I380" t="str">
         <v>120.00</v>
       </c>
       <c r="J380" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K380" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="381">
@@ -13726,16 +13726,16 @@
         <v>0</v>
       </c>
       <c r="H381">
-        <v>1580</v>
+        <v>9514</v>
       </c>
       <c r="I381" t="str">
         <v>120.00</v>
       </c>
       <c r="J381" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K381" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="382">
@@ -13761,16 +13761,16 @@
         <v>0</v>
       </c>
       <c r="H382">
-        <v>8617</v>
+        <v>7077</v>
       </c>
       <c r="I382" t="str">
         <v>120.00</v>
       </c>
       <c r="J382" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K382" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="383">
@@ -13796,7 +13796,7 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <v>3007</v>
+        <v>5192</v>
       </c>
       <c r="I383" t="str">
         <v>120.00</v>
@@ -13831,16 +13831,16 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <v>8455</v>
+        <v>6347</v>
       </c>
       <c r="I384" t="str">
         <v>120.00</v>
       </c>
       <c r="J384" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K384" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="385">
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="H385">
-        <v>6141</v>
+        <v>8728</v>
       </c>
       <c r="I385" t="str">
         <v>120.00</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <v>2358</v>
+        <v>5144</v>
       </c>
       <c r="I386" t="str">
         <v>120.00</v>
@@ -13936,16 +13936,16 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <v>8696</v>
+        <v>3733</v>
       </c>
       <c r="I387" t="str">
         <v>120.00</v>
       </c>
       <c r="J387" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K387" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="388">
@@ -13971,16 +13971,16 @@
         <v>0</v>
       </c>
       <c r="H388">
-        <v>6548</v>
+        <v>7382</v>
       </c>
       <c r="I388" t="str">
         <v>90.00</v>
       </c>
       <c r="J388" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K388" t="str">
-        <v>81.00</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="389">
@@ -14006,16 +14006,16 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <v>1627</v>
+        <v>9298</v>
       </c>
       <c r="I389" t="str">
         <v>120.00</v>
       </c>
       <c r="J389" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K389" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="390">
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <v>8959</v>
+        <v>3760</v>
       </c>
       <c r="I390" t="str">
         <v>120.00</v>
@@ -14076,16 +14076,16 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>1039</v>
+        <v>4519</v>
       </c>
       <c r="I391" t="str">
         <v>120.00</v>
       </c>
       <c r="J391" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K391" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="392">
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="H392">
-        <v>5521</v>
+        <v>3417</v>
       </c>
       <c r="I392" t="str">
         <v>120.00</v>
@@ -14146,16 +14146,16 @@
         <v>0</v>
       </c>
       <c r="H393">
-        <v>7907</v>
+        <v>8628</v>
       </c>
       <c r="I393" t="str">
         <v>120.00</v>
       </c>
       <c r="J393" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K393" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="394">
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="H394">
-        <v>9063</v>
+        <v>8712</v>
       </c>
       <c r="I394" t="str">
         <v>120.00</v>
@@ -14216,16 +14216,16 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <v>4315</v>
+        <v>8202</v>
       </c>
       <c r="I395" t="str">
         <v>120.00</v>
       </c>
       <c r="J395" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K395" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="396">
@@ -14251,16 +14251,16 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <v>3940</v>
+        <v>2551</v>
       </c>
       <c r="I396" t="str">
         <v>120.00</v>
       </c>
       <c r="J396" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K396" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="397">
@@ -14286,16 +14286,16 @@
         <v>0</v>
       </c>
       <c r="H397">
-        <v>4336</v>
+        <v>4128</v>
       </c>
       <c r="I397" t="str">
         <v>120.00</v>
       </c>
       <c r="J397" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K397" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="398">
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="H398">
-        <v>8914</v>
+        <v>4926</v>
       </c>
       <c r="I398" t="str">
         <v>120.00</v>
@@ -14356,7 +14356,7 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>9263</v>
+        <v>2961</v>
       </c>
       <c r="I399" t="str">
         <v>120.00</v>
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="H400">
-        <v>8349</v>
+        <v>1212</v>
       </c>
       <c r="I400" t="str">
         <v>120.00</v>
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
       <c r="H401">
-        <v>9505</v>
+        <v>1553</v>
       </c>
       <c r="I401" t="str">
         <v>120.00</v>
@@ -14461,16 +14461,16 @@
         <v>0</v>
       </c>
       <c r="H402">
-        <v>6175</v>
+        <v>9151</v>
       </c>
       <c r="I402" t="str">
         <v>120.00</v>
       </c>
       <c r="J402" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K402" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="403">
@@ -14496,16 +14496,16 @@
         <v>0</v>
       </c>
       <c r="H403">
-        <v>2741</v>
+        <v>1068</v>
       </c>
       <c r="I403" t="str">
         <v>120.00</v>
       </c>
       <c r="J403" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K403" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="404">
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="H404">
-        <v>6900</v>
+        <v>8390</v>
       </c>
       <c r="I404" t="str">
         <v>120.00</v>
@@ -14566,16 +14566,16 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>5191</v>
+        <v>1282</v>
       </c>
       <c r="I405" t="str">
         <v>120.00</v>
       </c>
       <c r="J405" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K405" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="406">
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="H406">
-        <v>5621</v>
+        <v>9566</v>
       </c>
       <c r="I406" t="str">
         <v>120.00</v>
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>3175</v>
+        <v>5348</v>
       </c>
       <c r="I407" t="str">
         <v>120.00</v>
@@ -14671,16 +14671,16 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <v>8202</v>
+        <v>2088</v>
       </c>
       <c r="I408" t="str">
         <v>120.00</v>
       </c>
       <c r="J408" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K408" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="409">
@@ -14706,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>1171</v>
+        <v>9140</v>
       </c>
       <c r="I409" t="str">
         <v>120.00</v>
@@ -14741,16 +14741,16 @@
         <v>0</v>
       </c>
       <c r="H410">
-        <v>4053</v>
+        <v>3457</v>
       </c>
       <c r="I410" t="str">
         <v>120.00</v>
       </c>
       <c r="J410" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K410" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="411">
@@ -14776,16 +14776,16 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <v>7960</v>
+        <v>1842</v>
       </c>
       <c r="I411" t="str">
         <v>120.00</v>
       </c>
       <c r="J411" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K411" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="412">
@@ -14811,16 +14811,16 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>5698</v>
+        <v>3609</v>
       </c>
       <c r="I412" t="str">
         <v>120.00</v>
       </c>
       <c r="J412" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K412" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="413">
@@ -14846,16 +14846,16 @@
         <v>0</v>
       </c>
       <c r="H413">
-        <v>5962</v>
+        <v>8035</v>
       </c>
       <c r="I413" t="str">
         <v>120.00</v>
       </c>
       <c r="J413" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K413" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="414">
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="H414">
-        <v>1024</v>
+        <v>9902</v>
       </c>
       <c r="I414" t="str">
         <v>120.00</v>
@@ -14916,16 +14916,16 @@
         <v>0</v>
       </c>
       <c r="H415">
-        <v>3745</v>
+        <v>4042</v>
       </c>
       <c r="I415" t="str">
         <v>120.00</v>
       </c>
       <c r="J415" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K415" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="416">
@@ -14951,16 +14951,16 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <v>2788</v>
+        <v>7109</v>
       </c>
       <c r="I416" t="str">
         <v>120.00</v>
       </c>
       <c r="J416" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K416" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="417">
@@ -14986,16 +14986,16 @@
         <v>0</v>
       </c>
       <c r="H417">
-        <v>6715</v>
+        <v>7056</v>
       </c>
       <c r="I417" t="str">
         <v>120.00</v>
       </c>
       <c r="J417" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K417" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="418">
@@ -15021,16 +15021,16 @@
         <v>0</v>
       </c>
       <c r="H418">
-        <v>9841</v>
+        <v>7410</v>
       </c>
       <c r="I418" t="str">
         <v>120.00</v>
       </c>
       <c r="J418" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K418" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="419">
@@ -15056,7 +15056,7 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <v>5317</v>
+        <v>4243</v>
       </c>
       <c r="I419" t="str">
         <v>120.00</v>
@@ -15091,16 +15091,16 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>8070</v>
+        <v>7103</v>
       </c>
       <c r="I420" t="str">
         <v>120.00</v>
       </c>
       <c r="J420" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K420" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="421">
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>2922</v>
+        <v>3857</v>
       </c>
       <c r="I421" t="str">
         <v>120.00</v>
@@ -15161,16 +15161,16 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>5310</v>
+        <v>7367</v>
       </c>
       <c r="I422" t="str">
         <v>120.00</v>
       </c>
       <c r="J422" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K422" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="423">
@@ -15196,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <v>1264</v>
+        <v>9865</v>
       </c>
       <c r="I423" t="str">
         <v>120.00</v>
@@ -15231,16 +15231,16 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>8668</v>
+        <v>9068</v>
       </c>
       <c r="I424" t="str">
         <v>90.00</v>
       </c>
       <c r="J424" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K424" t="str">
-        <v>90.00</v>
+        <v>81.00</v>
       </c>
     </row>
     <row r="425">
@@ -15266,16 +15266,16 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>2139</v>
+        <v>6180</v>
       </c>
       <c r="I425" t="str">
         <v>120.00</v>
       </c>
       <c r="J425" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K425" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="426">
@@ -15301,16 +15301,16 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>7409</v>
+        <v>3677</v>
       </c>
       <c r="I426" t="str">
         <v>120.00</v>
       </c>
       <c r="J426" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K426" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="427">
@@ -15336,16 +15336,16 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>9041</v>
+        <v>7989</v>
       </c>
       <c r="I427" t="str">
         <v>120.00</v>
       </c>
       <c r="J427" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K427" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="428">
@@ -15371,16 +15371,16 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>2184</v>
+        <v>8381</v>
       </c>
       <c r="I428" t="str">
         <v>120.00</v>
       </c>
       <c r="J428" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K428" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="429">
@@ -15406,16 +15406,16 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>1056</v>
+        <v>3392</v>
       </c>
       <c r="I429" t="str">
         <v>120.00</v>
       </c>
       <c r="J429" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K429" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="430">
@@ -15441,16 +15441,16 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>9773</v>
+        <v>6627</v>
       </c>
       <c r="I430" t="str">
         <v>120.00</v>
       </c>
       <c r="J430" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K430" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="431">
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>5125</v>
+        <v>1499</v>
       </c>
       <c r="I431" t="str">
         <v>120.00</v>
@@ -15511,16 +15511,16 @@
         <v>0</v>
       </c>
       <c r="H432">
-        <v>8570</v>
+        <v>1057</v>
       </c>
       <c r="I432" t="str">
         <v>120.00</v>
       </c>
       <c r="J432" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K432" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="433">
@@ -15546,16 +15546,16 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <v>3347</v>
+        <v>4446</v>
       </c>
       <c r="I433" t="str">
         <v>120.00</v>
       </c>
       <c r="J433" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K433" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="434">
@@ -15581,16 +15581,16 @@
         <v>0</v>
       </c>
       <c r="H434">
-        <v>7756</v>
+        <v>1205</v>
       </c>
       <c r="I434" t="str">
         <v>120.00</v>
       </c>
       <c r="J434" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K434" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="435">
@@ -15616,16 +15616,16 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>2778</v>
+        <v>9113</v>
       </c>
       <c r="I435" t="str">
         <v>120.00</v>
       </c>
       <c r="J435" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K435" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="436">
@@ -15651,16 +15651,16 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>1620</v>
+        <v>8620</v>
       </c>
       <c r="I436" t="str">
         <v>120.00</v>
       </c>
       <c r="J436" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K436" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="437">
@@ -15686,7 +15686,7 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="I437" t="str">
         <v>120.00</v>
@@ -15721,16 +15721,16 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>3889</v>
+        <v>8089</v>
       </c>
       <c r="I438" t="str">
         <v>120.00</v>
       </c>
       <c r="J438" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K438" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="439">
@@ -15756,16 +15756,16 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>6120</v>
+        <v>1840</v>
       </c>
       <c r="I439" t="str">
         <v>120.00</v>
       </c>
       <c r="J439" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K439" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="440">
@@ -15791,16 +15791,16 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>5519</v>
+        <v>8970</v>
       </c>
       <c r="I440" t="str">
         <v>120.00</v>
       </c>
       <c r="J440" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K440" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="441">
@@ -15826,16 +15826,16 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>3463</v>
+        <v>4673</v>
       </c>
       <c r="I441" t="str">
         <v>120.00</v>
       </c>
       <c r="J441" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K441" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="442">
@@ -15861,16 +15861,16 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>6255</v>
+        <v>3719</v>
       </c>
       <c r="I442" t="str">
         <v>120.00</v>
       </c>
       <c r="J442" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K442" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="443">
@@ -15896,16 +15896,16 @@
         <v>0</v>
       </c>
       <c r="H443">
-        <v>2058</v>
+        <v>4681</v>
       </c>
       <c r="I443" t="str">
         <v>120.00</v>
       </c>
       <c r="J443" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K443" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="444">
@@ -15931,16 +15931,16 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>2476</v>
+        <v>6527</v>
       </c>
       <c r="I444" t="str">
         <v>110.00</v>
       </c>
       <c r="J444" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K444" t="str">
-        <v>110.00</v>
+        <v>104.50</v>
       </c>
     </row>
     <row r="445">
@@ -15966,16 +15966,16 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <v>1261</v>
+        <v>6588</v>
       </c>
       <c r="I445" t="str">
         <v>120.00</v>
       </c>
       <c r="J445" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K445" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="446">
@@ -16001,16 +16001,16 @@
         <v>0</v>
       </c>
       <c r="H446">
-        <v>8359</v>
+        <v>8397</v>
       </c>
       <c r="I446" t="str">
         <v>120.00</v>
       </c>
       <c r="J446" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K446" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="447">
@@ -16036,16 +16036,16 @@
         <v>0</v>
       </c>
       <c r="H447">
-        <v>9456</v>
+        <v>3546</v>
       </c>
       <c r="I447" t="str">
         <v>120.00</v>
       </c>
       <c r="J447" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K447" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="448">
@@ -16071,7 +16071,7 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <v>1556</v>
+        <v>8670</v>
       </c>
       <c r="I448" t="str">
         <v>120.00</v>
@@ -16106,7 +16106,7 @@
         <v>0</v>
       </c>
       <c r="H449">
-        <v>3167</v>
+        <v>2607</v>
       </c>
       <c r="I449" t="str">
         <v>120.00</v>
@@ -16141,16 +16141,16 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <v>3858</v>
+        <v>8302</v>
       </c>
       <c r="I450" t="str">
         <v>120.00</v>
       </c>
       <c r="J450" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K450" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
   </sheetData>

--- a/output_files/json_to_excel/passenger.xlsx
+++ b/output_files/json_to_excel/passenger.xlsx
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>6865</v>
+        <v>1477</v>
       </c>
       <c r="I2" t="str">
         <v>140.00</v>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>9008</v>
+        <v>4533</v>
       </c>
       <c r="I3" t="str">
         <v>140.00</v>
@@ -531,16 +531,16 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>4397</v>
+        <v>6646</v>
       </c>
       <c r="I4" t="str">
         <v>140.00</v>
       </c>
       <c r="J4" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K4" t="str">
-        <v>140.00</v>
+        <v>133.00</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>5053</v>
+        <v>2680</v>
       </c>
       <c r="I5" t="str">
         <v>140.00</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>8272</v>
+        <v>4850</v>
       </c>
       <c r="I6" t="str">
         <v>140.00</v>
@@ -636,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>3690</v>
+        <v>9465</v>
       </c>
       <c r="I7" t="str">
         <v>140.00</v>
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>2505</v>
+        <v>6175</v>
       </c>
       <c r="I8" t="str">
         <v>140.00</v>
       </c>
       <c r="J8" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K8" t="str">
-        <v>140.00</v>
+        <v>133.00</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>7400</v>
+        <v>8619</v>
       </c>
       <c r="I9" t="str">
         <v>140.00</v>
@@ -741,16 +741,16 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>9661</v>
+        <v>9202</v>
       </c>
       <c r="I10" t="str">
         <v>140.00</v>
       </c>
       <c r="J10" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K10" t="str">
-        <v>140.00</v>
+        <v>126.00</v>
       </c>
     </row>
     <row r="11">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3423</v>
+        <v>7964</v>
       </c>
       <c r="I11" t="str">
         <v>140.00</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>2735</v>
+        <v>6091</v>
       </c>
       <c r="I12" t="str">
         <v>140.00</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3709</v>
+        <v>4536</v>
       </c>
       <c r="I13" t="str">
         <v>140.00</v>
@@ -881,16 +881,16 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>6865</v>
+        <v>5108</v>
       </c>
       <c r="I14" t="str">
         <v>140.00</v>
       </c>
       <c r="J14" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K14" t="str">
-        <v>133.00</v>
+        <v>140.00</v>
       </c>
     </row>
     <row r="15">
@@ -916,16 +916,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5076</v>
+        <v>4551</v>
       </c>
       <c r="I15" t="str">
         <v>120.00</v>
       </c>
       <c r="J15" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K15" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="16">
@@ -951,16 +951,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5603</v>
+        <v>4190</v>
       </c>
       <c r="I16" t="str">
         <v>120.00</v>
       </c>
       <c r="J16" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K16" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="17">
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9738</v>
+        <v>1835</v>
       </c>
       <c r="I17" t="str">
         <v>120.00</v>
       </c>
       <c r="J17" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K17" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="18">
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>3448</v>
+        <v>3291</v>
       </c>
       <c r="I18" t="str">
         <v>120.00</v>
       </c>
       <c r="J18" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K18" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="19">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1496</v>
+        <v>7323</v>
       </c>
       <c r="I19" t="str">
         <v>120.00</v>
       </c>
       <c r="J19" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K19" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="20">
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5864</v>
+        <v>2175</v>
       </c>
       <c r="I20" t="str">
         <v>120.00</v>
@@ -1126,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3280</v>
+        <v>1205</v>
       </c>
       <c r="I21" t="str">
         <v>120.00</v>
       </c>
       <c r="J21" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K21" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="22">
@@ -1161,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7366</v>
+        <v>4185</v>
       </c>
       <c r="I22" t="str">
         <v>120.00</v>
       </c>
       <c r="J22" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K22" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="23">
@@ -1196,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2627</v>
+        <v>3913</v>
       </c>
       <c r="I23" t="str">
         <v>120.00</v>
       </c>
       <c r="J23" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K23" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="24">
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2419</v>
+        <v>9254</v>
       </c>
       <c r="I24" t="str">
         <v>120.00</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9110</v>
+        <v>9669</v>
       </c>
       <c r="I25" t="str">
         <v>120.00</v>
       </c>
       <c r="J25" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K25" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="26">
@@ -1301,16 +1301,16 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4350</v>
+        <v>9602</v>
       </c>
       <c r="I26" t="str">
         <v>120.00</v>
       </c>
       <c r="J26" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K26" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="27">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2161</v>
+        <v>2581</v>
       </c>
       <c r="I27" t="str">
         <v>120.00</v>
@@ -1371,16 +1371,16 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9068</v>
+        <v>7336</v>
       </c>
       <c r="I28" t="str">
         <v>120.00</v>
       </c>
       <c r="J28" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K28" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="29">
@@ -1406,16 +1406,16 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7833</v>
+        <v>9812</v>
       </c>
       <c r="I29" t="str">
         <v>120.00</v>
       </c>
       <c r="J29" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K29" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="30">
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>4524</v>
+        <v>5670</v>
       </c>
       <c r="I30" t="str">
         <v>120.00</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>3281</v>
+        <v>7159</v>
       </c>
       <c r="I31" t="str">
         <v>120.00</v>
       </c>
       <c r="J31" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K31" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="32">
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1545</v>
+        <v>1244</v>
       </c>
       <c r="I32" t="str">
         <v>120.00</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>9118</v>
+        <v>4225</v>
       </c>
       <c r="I33" t="str">
         <v>120.00</v>
       </c>
       <c r="J33" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K33" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="34">
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>6580</v>
+        <v>8606</v>
       </c>
       <c r="I34" t="str">
         <v>120.00</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4417</v>
+        <v>2883</v>
       </c>
       <c r="I35" t="str">
         <v>120.00</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2447</v>
+        <v>3700</v>
       </c>
       <c r="I36" t="str">
         <v>120.00</v>
       </c>
       <c r="J36" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K36" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="37">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>5893</v>
+        <v>2261</v>
       </c>
       <c r="I37" t="str">
         <v>120.00</v>
       </c>
       <c r="J37" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K37" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="38">
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4419</v>
+        <v>8139</v>
       </c>
       <c r="I38" t="str">
         <v>120.00</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5812</v>
+        <v>3012</v>
       </c>
       <c r="I39" t="str">
         <v>120.00</v>
       </c>
       <c r="J39" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K39" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="40">
@@ -1791,16 +1791,16 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>6977</v>
+        <v>4731</v>
       </c>
       <c r="I40" t="str">
         <v>120.00</v>
       </c>
       <c r="J40" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K40" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="41">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2557</v>
+        <v>5140</v>
       </c>
       <c r="I41" t="str">
         <v>120.00</v>
@@ -1861,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>8802</v>
+        <v>5063</v>
       </c>
       <c r="I42" t="str">
         <v>120.00</v>
       </c>
       <c r="J42" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K42" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="43">
@@ -1896,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>4731</v>
+        <v>2798</v>
       </c>
       <c r="I43" t="str">
         <v>120.00</v>
       </c>
       <c r="J43" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K43" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="44">
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4530</v>
+        <v>7367</v>
       </c>
       <c r="I44" t="str">
         <v>120.00</v>
       </c>
       <c r="J44" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K44" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="45">
@@ -1966,16 +1966,16 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>2400</v>
+        <v>6757</v>
       </c>
       <c r="I45" t="str">
         <v>120.00</v>
       </c>
       <c r="J45" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K45" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="46">
@@ -2001,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2566</v>
+        <v>9338</v>
       </c>
       <c r="I46" t="str">
         <v>120.00</v>
       </c>
       <c r="J46" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K46" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="47">
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>3551</v>
+        <v>4164</v>
       </c>
       <c r="I47" t="str">
         <v>120.00</v>
@@ -2071,16 +2071,16 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>5577</v>
+        <v>2087</v>
       </c>
       <c r="I48" t="str">
         <v>120.00</v>
       </c>
       <c r="J48" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K48" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="49">
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>7551</v>
+        <v>2333</v>
       </c>
       <c r="I49" t="str">
         <v>120.00</v>
       </c>
       <c r="J49" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K49" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="50">
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>9891</v>
+        <v>8585</v>
       </c>
       <c r="I50" t="str">
         <v>120.00</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>7650</v>
+        <v>9106</v>
       </c>
       <c r="I51" t="str">
         <v>120.00</v>
@@ -2211,16 +2211,16 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>9412</v>
+        <v>8982</v>
       </c>
       <c r="I52" t="str">
         <v>120.00</v>
       </c>
       <c r="J52" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K52" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="53">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>5322</v>
+        <v>1323</v>
       </c>
       <c r="I53" t="str">
         <v>120.00</v>
@@ -2281,16 +2281,16 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>9537</v>
+        <v>4636</v>
       </c>
       <c r="I54" t="str">
         <v>120.00</v>
       </c>
       <c r="J54" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K54" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="55">
@@ -2316,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1143</v>
+        <v>9630</v>
       </c>
       <c r="I55" t="str">
         <v>120.00</v>
       </c>
       <c r="J55" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K55" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="56">
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2631</v>
+        <v>2746</v>
       </c>
       <c r="I56" t="str">
         <v>120.00</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>3859</v>
+        <v>5209</v>
       </c>
       <c r="I57" t="str">
         <v>120.00</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>7432</v>
+        <v>9509</v>
       </c>
       <c r="I58" t="str">
         <v>120.00</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>4047</v>
+        <v>5933</v>
       </c>
       <c r="I59" t="str">
         <v>120.00</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>2353</v>
+        <v>1223</v>
       </c>
       <c r="I60" t="str">
         <v>120.00</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>9098</v>
+        <v>4514</v>
       </c>
       <c r="I61" t="str">
         <v>120.00</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>5704</v>
+        <v>7818</v>
       </c>
       <c r="I62" t="str">
         <v>120.00</v>
@@ -2596,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>2170</v>
+        <v>9339</v>
       </c>
       <c r="I63" t="str">
         <v>120.00</v>
       </c>
       <c r="J63" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K63" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="64">
@@ -2631,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>7177</v>
+        <v>4560</v>
       </c>
       <c r="I64" t="str">
         <v>120.00</v>
       </c>
       <c r="J64" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K64" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="65">
@@ -2666,16 +2666,16 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>1023</v>
+        <v>9526</v>
       </c>
       <c r="I65" t="str">
         <v>120.00</v>
       </c>
       <c r="J65" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K65" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="66">
@@ -2701,16 +2701,16 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>2016</v>
+        <v>2068</v>
       </c>
       <c r="I66" t="str">
         <v>120.00</v>
       </c>
       <c r="J66" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K66" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="67">
@@ -2736,16 +2736,16 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>6364</v>
+        <v>3063</v>
       </c>
       <c r="I67" t="str">
         <v>120.00</v>
       </c>
       <c r="J67" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K67" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="68">
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>4420</v>
+        <v>4626</v>
       </c>
       <c r="I68" t="str">
         <v>120.00</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>5454</v>
+        <v>3417</v>
       </c>
       <c r="I69" t="str">
         <v>120.00</v>
@@ -2841,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>9070</v>
+        <v>5896</v>
       </c>
       <c r="I70" t="str">
         <v>120.00</v>
       </c>
       <c r="J70" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K70" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="71">
@@ -2876,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>9529</v>
+        <v>6013</v>
       </c>
       <c r="I71" t="str">
         <v>120.00</v>
       </c>
       <c r="J71" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K71" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="72">
@@ -2911,16 +2911,16 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>8701</v>
+        <v>6994</v>
       </c>
       <c r="I72" t="str">
         <v>120.00</v>
       </c>
       <c r="J72" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K72" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="73">
@@ -2946,16 +2946,16 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>1270</v>
+        <v>6019</v>
       </c>
       <c r="I73" t="str">
         <v>120.00</v>
       </c>
       <c r="J73" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K73" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="74">
@@ -2981,16 +2981,16 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>2674</v>
+        <v>8388</v>
       </c>
       <c r="I74" t="str">
         <v>120.00</v>
       </c>
       <c r="J74" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K74" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="75">
@@ -3016,16 +3016,16 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>8981</v>
+        <v>4292</v>
       </c>
       <c r="I75" t="str">
         <v>120.00</v>
       </c>
       <c r="J75" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K75" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="76">
@@ -3051,16 +3051,16 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>5243</v>
+        <v>4344</v>
       </c>
       <c r="I76" t="str">
         <v>120.00</v>
       </c>
       <c r="J76" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K76" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="77">
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3072</v>
+        <v>9094</v>
       </c>
       <c r="I77" t="str">
         <v>120.00</v>
       </c>
       <c r="J77" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K77" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="78">
@@ -3121,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>5754</v>
+        <v>5503</v>
       </c>
       <c r="I78" t="str">
         <v>120.00</v>
       </c>
       <c r="J78" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K78" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="79">
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>7453</v>
+        <v>7862</v>
       </c>
       <c r="I79" t="str">
         <v>120.00</v>
@@ -3191,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>2528</v>
+        <v>1129</v>
       </c>
       <c r="I80" t="str">
         <v>120.00</v>
       </c>
       <c r="J80" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K80" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="81">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>1195</v>
+        <v>4398</v>
       </c>
       <c r="I81" t="str">
         <v>120.00</v>
@@ -3261,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1011</v>
+        <v>6583</v>
       </c>
       <c r="I82" t="str">
         <v>120.00</v>
       </c>
       <c r="J82" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K82" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="83">
@@ -3296,16 +3296,16 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>2476</v>
+        <v>7179</v>
       </c>
       <c r="I83" t="str">
         <v>120.00</v>
       </c>
       <c r="J83" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K83" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="84">
@@ -3331,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>4250</v>
+        <v>4985</v>
       </c>
       <c r="I84" t="str">
         <v>120.00</v>
       </c>
       <c r="J84" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K84" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="85">
@@ -3366,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>8743</v>
+        <v>4591</v>
       </c>
       <c r="I85" t="str">
         <v>120.00</v>
       </c>
       <c r="J85" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K85" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="86">
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>7092</v>
+        <v>7729</v>
       </c>
       <c r="I86" t="str">
         <v>120.00</v>
       </c>
       <c r="J86" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K86" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="87">
@@ -3436,16 +3436,16 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>9719</v>
+        <v>5020</v>
       </c>
       <c r="I87" t="str">
         <v>120.00</v>
       </c>
       <c r="J87" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K87" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="88">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>4155</v>
+        <v>3262</v>
       </c>
       <c r="I88" t="str">
         <v>120.00</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>2171</v>
+        <v>5362</v>
       </c>
       <c r="I89" t="str">
         <v>120.00</v>
       </c>
       <c r="J89" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K89" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="90">
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>9656</v>
+        <v>6682</v>
       </c>
       <c r="I90" t="str">
         <v>120.00</v>
@@ -3576,16 +3576,16 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>8185</v>
+        <v>6199</v>
       </c>
       <c r="I91" t="str">
         <v>120.00</v>
       </c>
       <c r="J91" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K91" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="92">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>1964</v>
+        <v>3376</v>
       </c>
       <c r="I92" t="str">
         <v>120.00</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>2098</v>
+        <v>2772</v>
       </c>
       <c r="I93" t="str">
         <v>120.00</v>
@@ -3681,16 +3681,16 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>7692</v>
+        <v>8153</v>
       </c>
       <c r="I94" t="str">
         <v>120.00</v>
       </c>
       <c r="J94" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K94" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="95">
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>6734</v>
+        <v>4266</v>
       </c>
       <c r="I95" t="str">
         <v>120.00</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>9228</v>
+        <v>4945</v>
       </c>
       <c r="I96" t="str">
         <v>120.00</v>
@@ -3786,16 +3786,16 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>7384</v>
+        <v>4689</v>
       </c>
       <c r="I97" t="str">
         <v>120.00</v>
       </c>
       <c r="J97" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K97" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="98">
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>5650</v>
+        <v>1378</v>
       </c>
       <c r="I98" t="str">
         <v>120.00</v>
@@ -3856,16 +3856,16 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1275</v>
+        <v>6740</v>
       </c>
       <c r="I99" t="str">
         <v>120.00</v>
       </c>
       <c r="J99" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K99" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="100">
@@ -3891,16 +3891,16 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>8067</v>
+        <v>5400</v>
       </c>
       <c r="I100" t="str">
         <v>120.00</v>
       </c>
       <c r="J100" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K100" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="101">
@@ -3926,16 +3926,16 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>6648</v>
+        <v>8366</v>
       </c>
       <c r="I101" t="str">
         <v>120.00</v>
       </c>
       <c r="J101" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K101" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="102">
@@ -3961,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>4827</v>
+        <v>5767</v>
       </c>
       <c r="I102" t="str">
         <v>120.00</v>
       </c>
       <c r="J102" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K102" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="103">
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>8438</v>
+        <v>5324</v>
       </c>
       <c r="I103" t="str">
         <v>120.00</v>
       </c>
       <c r="J103" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K103" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="104">
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>1580</v>
+        <v>6288</v>
       </c>
       <c r="I104" t="str">
         <v>120.00</v>
       </c>
       <c r="J104" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K104" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="105">
@@ -4066,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>8825</v>
+        <v>5279</v>
       </c>
       <c r="I105" t="str">
         <v>120.00</v>
       </c>
       <c r="J105" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K105" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="106">
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>3405</v>
+        <v>7466</v>
       </c>
       <c r="I106" t="str">
         <v>120.00</v>
       </c>
       <c r="J106" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K106" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="107">
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>5232</v>
+        <v>8265</v>
       </c>
       <c r="I107" t="str">
         <v>120.00</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>9178</v>
+        <v>3201</v>
       </c>
       <c r="I108" t="str">
         <v>120.00</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>7897</v>
+        <v>7964</v>
       </c>
       <c r="I109" t="str">
         <v>120.00</v>
@@ -4241,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6170</v>
+        <v>5064</v>
       </c>
       <c r="I110" t="str">
         <v>120.00</v>
       </c>
       <c r="J110" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K110" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="111">
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>3594</v>
+        <v>9842</v>
       </c>
       <c r="I111" t="str">
         <v>120.00</v>
       </c>
       <c r="J111" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K111" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="112">
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1203</v>
+        <v>7077</v>
       </c>
       <c r="I112" t="str">
         <v>120.00</v>
@@ -4346,16 +4346,16 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>8184</v>
+        <v>6821</v>
       </c>
       <c r="I113" t="str">
         <v>120.00</v>
       </c>
       <c r="J113" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K113" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="114">
@@ -4381,16 +4381,16 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1675</v>
+        <v>9561</v>
       </c>
       <c r="I114" t="str">
         <v>120.00</v>
       </c>
       <c r="J114" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K114" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="115">
@@ -4416,16 +4416,16 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2963</v>
+        <v>1326</v>
       </c>
       <c r="I115" t="str">
         <v>120.00</v>
       </c>
       <c r="J115" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K115" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="116">
@@ -4451,16 +4451,16 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>6714</v>
+        <v>6622</v>
       </c>
       <c r="I116" t="str">
         <v>120.00</v>
       </c>
       <c r="J116" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K116" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="117">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1512</v>
+        <v>5832</v>
       </c>
       <c r="I117" t="str">
         <v>120.00</v>
@@ -4521,16 +4521,16 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1700</v>
+        <v>6765</v>
       </c>
       <c r="I118" t="str">
         <v>120.00</v>
       </c>
       <c r="J118" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K118" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="119">
@@ -4556,16 +4556,16 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>5503</v>
+        <v>6002</v>
       </c>
       <c r="I119" t="str">
         <v>120.00</v>
       </c>
       <c r="J119" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K119" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="120">
@@ -4591,16 +4591,16 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1647</v>
+        <v>9439</v>
       </c>
       <c r="I120" t="str">
         <v>120.00</v>
       </c>
       <c r="J120" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K120" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="121">
@@ -4626,16 +4626,16 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1755</v>
+        <v>2112</v>
       </c>
       <c r="I121" t="str">
         <v>120.00</v>
       </c>
       <c r="J121" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K121" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="122">
@@ -4661,16 +4661,16 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>5553</v>
+        <v>4194</v>
       </c>
       <c r="I122" t="str">
         <v>120.00</v>
       </c>
       <c r="J122" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K122" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="123">
@@ -4696,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>9901</v>
+        <v>4452</v>
       </c>
       <c r="I123" t="str">
         <v>120.00</v>
       </c>
       <c r="J123" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K123" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="124">
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>7860</v>
+        <v>7052</v>
       </c>
       <c r="I124" t="str">
         <v>120.00</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>1121</v>
+        <v>2462</v>
       </c>
       <c r="I125" t="str">
         <v>120.00</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>6432</v>
+        <v>9700</v>
       </c>
       <c r="I126" t="str">
         <v>120.00</v>
@@ -4836,16 +4836,16 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>6066</v>
+        <v>4155</v>
       </c>
       <c r="I127" t="str">
         <v>120.00</v>
       </c>
       <c r="J127" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K127" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="128">
@@ -4871,16 +4871,16 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>2462</v>
+        <v>1898</v>
       </c>
       <c r="I128" t="str">
         <v>120.00</v>
       </c>
       <c r="J128" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K128" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="129">
@@ -4906,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>5907</v>
+        <v>4668</v>
       </c>
       <c r="I129" t="str">
         <v>120.00</v>
       </c>
       <c r="J129" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K129" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="130">
@@ -4941,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>4043</v>
+        <v>7217</v>
       </c>
       <c r="I130" t="str">
         <v>120.00</v>
@@ -4976,16 +4976,16 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1372</v>
+        <v>1765</v>
       </c>
       <c r="I131" t="str">
         <v>120.00</v>
       </c>
       <c r="J131" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K131" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="132">
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>9378</v>
+        <v>2742</v>
       </c>
       <c r="I132" t="str">
         <v>120.00</v>
       </c>
       <c r="J132" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K132" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="133">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>5503</v>
+        <v>9529</v>
       </c>
       <c r="I133" t="str">
         <v>120.00</v>
@@ -5081,16 +5081,16 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1431</v>
+        <v>4125</v>
       </c>
       <c r="I134" t="str">
         <v>120.00</v>
       </c>
       <c r="J134" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K134" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="135">
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>5657</v>
+        <v>1883</v>
       </c>
       <c r="I135" t="str">
         <v>120.00</v>
@@ -5151,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>4108</v>
+        <v>2156</v>
       </c>
       <c r="I136" t="str">
         <v>120.00</v>
       </c>
       <c r="J136" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K136" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="137">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>4099</v>
+        <v>1120</v>
       </c>
       <c r="I137" t="str">
         <v>120.00</v>
@@ -5221,16 +5221,16 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>6073</v>
+        <v>9998</v>
       </c>
       <c r="I138" t="str">
         <v>120.00</v>
       </c>
       <c r="J138" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K138" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="139">
@@ -5256,16 +5256,16 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>9204</v>
+        <v>3145</v>
       </c>
       <c r="I139" t="str">
         <v>120.00</v>
       </c>
       <c r="J139" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K139" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="140">
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>2679</v>
+        <v>2158</v>
       </c>
       <c r="I140" t="str">
         <v>120.00</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>3610</v>
+        <v>3268</v>
       </c>
       <c r="I141" t="str">
         <v>120.00</v>
@@ -5361,16 +5361,16 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>6237</v>
+        <v>1466</v>
       </c>
       <c r="I142" t="str">
         <v>120.00</v>
       </c>
       <c r="J142" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K142" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="143">
@@ -5396,16 +5396,16 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>5946</v>
+        <v>3483</v>
       </c>
       <c r="I143" t="str">
         <v>120.00</v>
       </c>
       <c r="J143" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K143" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="144">
@@ -5431,16 +5431,16 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>4067</v>
+        <v>8827</v>
       </c>
       <c r="I144" t="str">
         <v>120.00</v>
       </c>
       <c r="J144" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K144" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="145">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>8250</v>
+        <v>7049</v>
       </c>
       <c r="I145" t="str">
         <v>120.00</v>
@@ -5501,16 +5501,16 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1337</v>
+        <v>1092</v>
       </c>
       <c r="I146" t="str">
         <v>120.00</v>
       </c>
       <c r="J146" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K146" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="147">
@@ -5536,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>8040</v>
+        <v>3966</v>
       </c>
       <c r="I147" t="str">
         <v>120.00</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>7686</v>
+        <v>3460</v>
       </c>
       <c r="I148" t="str">
         <v>120.00</v>
@@ -5606,16 +5606,16 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>8418</v>
+        <v>6274</v>
       </c>
       <c r="I149" t="str">
         <v>120.00</v>
       </c>
       <c r="J149" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K149" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="150">
@@ -5641,16 +5641,16 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>5726</v>
+        <v>3419</v>
       </c>
       <c r="I150" t="str">
         <v>120.00</v>
       </c>
       <c r="J150" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K150" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="151">
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>8427</v>
+        <v>5172</v>
       </c>
       <c r="I151" t="str">
         <v>120.00</v>
@@ -5711,16 +5711,16 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>2586</v>
+        <v>9026</v>
       </c>
       <c r="I152" t="str">
         <v>120.00</v>
       </c>
       <c r="J152" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K152" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="153">
@@ -5746,16 +5746,16 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>9558</v>
+        <v>9637</v>
       </c>
       <c r="I153" t="str">
         <v>120.00</v>
       </c>
       <c r="J153" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K153" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="154">
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>7836</v>
+        <v>3053</v>
       </c>
       <c r="I154" t="str">
         <v>120.00</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>8575</v>
+        <v>2438</v>
       </c>
       <c r="I155" t="str">
         <v>120.00</v>
@@ -5851,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>8932</v>
+        <v>5308</v>
       </c>
       <c r="I156" t="str">
         <v>120.00</v>
       </c>
       <c r="J156" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K156" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="157">
@@ -5886,16 +5886,16 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>9890</v>
+        <v>6128</v>
       </c>
       <c r="I157" t="str">
         <v>120.00</v>
       </c>
       <c r="J157" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K157" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="158">
@@ -5921,16 +5921,16 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>7333</v>
+        <v>2216</v>
       </c>
       <c r="I158" t="str">
         <v>120.00</v>
       </c>
       <c r="J158" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K158" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="159">
@@ -5956,16 +5956,16 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>5818</v>
+        <v>7502</v>
       </c>
       <c r="I159" t="str">
         <v>120.00</v>
       </c>
       <c r="J159" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K159" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="160">
@@ -5991,16 +5991,16 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>4895</v>
+        <v>8075</v>
       </c>
       <c r="I160" t="str">
         <v>120.00</v>
       </c>
       <c r="J160" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K160" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="161">
@@ -6026,16 +6026,16 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>6580</v>
+        <v>4619</v>
       </c>
       <c r="I161" t="str">
         <v>120.00</v>
       </c>
       <c r="J161" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K161" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="162">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>7203</v>
+        <v>9675</v>
       </c>
       <c r="I162" t="str">
         <v>120.00</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1681</v>
+        <v>7157</v>
       </c>
       <c r="I163" t="str">
         <v>120.00</v>
@@ -6131,16 +6131,16 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>7584</v>
+        <v>8117</v>
       </c>
       <c r="I164" t="str">
         <v>120.00</v>
       </c>
       <c r="J164" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K164" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="165">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>9017</v>
+        <v>8109</v>
       </c>
       <c r="I165" t="str">
         <v>120.00</v>
@@ -6201,16 +6201,16 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>1648</v>
+        <v>8524</v>
       </c>
       <c r="I166" t="str">
         <v>120.00</v>
       </c>
       <c r="J166" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K166" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="167">
@@ -6236,16 +6236,16 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>8002</v>
+        <v>7964</v>
       </c>
       <c r="I167" t="str">
         <v>90.00</v>
       </c>
       <c r="J167" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K167" t="str">
-        <v>85.50</v>
+        <v>81.00</v>
       </c>
     </row>
     <row r="168">
@@ -6271,16 +6271,16 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>7718</v>
+        <v>2024</v>
       </c>
       <c r="I168" t="str">
         <v>120.00</v>
       </c>
       <c r="J168" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K168" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="169">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>5716</v>
+        <v>6168</v>
       </c>
       <c r="I169" t="str">
         <v>120.00</v>
@@ -6341,16 +6341,16 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>2589</v>
+        <v>4838</v>
       </c>
       <c r="I170" t="str">
         <v>120.00</v>
       </c>
       <c r="J170" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K170" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="171">
@@ -6376,16 +6376,16 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>5069</v>
+        <v>6798</v>
       </c>
       <c r="I171" t="str">
         <v>120.00</v>
       </c>
       <c r="J171" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K171" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="172">
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>5204</v>
+        <v>6083</v>
       </c>
       <c r="I172" t="str">
         <v>120.00</v>
@@ -6446,16 +6446,16 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>3013</v>
+        <v>1314</v>
       </c>
       <c r="I173" t="str">
         <v>120.00</v>
       </c>
       <c r="J173" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K173" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="174">
@@ -6481,7 +6481,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>3200</v>
+        <v>8912</v>
       </c>
       <c r="I174" t="str">
         <v>120.00</v>
@@ -6516,16 +6516,16 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>3365</v>
+        <v>5714</v>
       </c>
       <c r="I175" t="str">
         <v>120.00</v>
       </c>
       <c r="J175" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K175" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="176">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1598</v>
+        <v>1447</v>
       </c>
       <c r="I176" t="str">
         <v>120.00</v>
@@ -6586,16 +6586,16 @@
         <v>0</v>
       </c>
       <c r="H177">
-        <v>9983</v>
+        <v>7201</v>
       </c>
       <c r="I177" t="str">
         <v>120.00</v>
       </c>
       <c r="J177" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K177" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="178">
@@ -6621,16 +6621,16 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>7453</v>
+        <v>6052</v>
       </c>
       <c r="I178" t="str">
         <v>120.00</v>
       </c>
       <c r="J178" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K178" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="179">
@@ -6656,16 +6656,16 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <v>8575</v>
+        <v>6223</v>
       </c>
       <c r="I179" t="str">
         <v>120.00</v>
       </c>
       <c r="J179" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K179" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="180">
@@ -6691,16 +6691,16 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>5722</v>
+        <v>2596</v>
       </c>
       <c r="I180" t="str">
         <v>120.00</v>
       </c>
       <c r="J180" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K180" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="181">
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>3864</v>
+        <v>4754</v>
       </c>
       <c r="I181" t="str">
         <v>120.00</v>
@@ -6761,16 +6761,16 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>4534</v>
+        <v>1237</v>
       </c>
       <c r="I182" t="str">
         <v>120.00</v>
       </c>
       <c r="J182" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K182" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="183">
@@ -6796,16 +6796,16 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>9139</v>
+        <v>3137</v>
       </c>
       <c r="I183" t="str">
         <v>120.00</v>
       </c>
       <c r="J183" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K183" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="184">
@@ -6831,16 +6831,16 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>5414</v>
+        <v>9077</v>
       </c>
       <c r="I184" t="str">
         <v>120.00</v>
       </c>
       <c r="J184" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K184" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="185">
@@ -6866,16 +6866,16 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>5400</v>
+        <v>6126</v>
       </c>
       <c r="I185" t="str">
         <v>120.00</v>
       </c>
       <c r="J185" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K185" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="186">
@@ -6901,16 +6901,16 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>2592</v>
+        <v>3788</v>
       </c>
       <c r="I186" t="str">
         <v>120.00</v>
       </c>
       <c r="J186" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K186" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="187">
@@ -6936,16 +6936,16 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>6524</v>
+        <v>9144</v>
       </c>
       <c r="I187" t="str">
         <v>120.00</v>
       </c>
       <c r="J187" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K187" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="188">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>7242</v>
+        <v>2816</v>
       </c>
       <c r="I188" t="str">
         <v>120.00</v>
@@ -7006,16 +7006,16 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>7705</v>
+        <v>2378</v>
       </c>
       <c r="I189" t="str">
         <v>90.00</v>
       </c>
       <c r="J189" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K189" t="str">
-        <v>85.50</v>
+        <v>81.00</v>
       </c>
     </row>
     <row r="190">
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>7254</v>
+        <v>6515</v>
       </c>
       <c r="I190" t="str">
         <v>120.00</v>
@@ -7076,16 +7076,16 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>8168</v>
+        <v>1019</v>
       </c>
       <c r="I191" t="str">
         <v>120.00</v>
       </c>
       <c r="J191" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K191" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="192">
@@ -7111,16 +7111,16 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>1240</v>
+        <v>6943</v>
       </c>
       <c r="I192" t="str">
         <v>120.00</v>
       </c>
       <c r="J192" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K192" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="193">
@@ -7146,16 +7146,16 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>5872</v>
+        <v>4183</v>
       </c>
       <c r="I193" t="str">
         <v>120.00</v>
       </c>
       <c r="J193" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K193" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="194">
@@ -7181,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>4094</v>
+        <v>2616</v>
       </c>
       <c r="I194" t="str">
         <v>120.00</v>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>3956</v>
+        <v>1970</v>
       </c>
       <c r="I195" t="str">
         <v>120.00</v>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>8934</v>
+        <v>4503</v>
       </c>
       <c r="I196" t="str">
         <v>120.00</v>
@@ -7286,16 +7286,16 @@
         <v>0</v>
       </c>
       <c r="H197">
-        <v>2589</v>
+        <v>6536</v>
       </c>
       <c r="I197" t="str">
         <v>120.00</v>
       </c>
       <c r="J197" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K197" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="198">
@@ -7321,16 +7321,16 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>2542</v>
+        <v>9438</v>
       </c>
       <c r="I198" t="str">
         <v>120.00</v>
       </c>
       <c r="J198" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K198" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="199">
@@ -7356,16 +7356,16 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>5534</v>
+        <v>8911</v>
       </c>
       <c r="I199" t="str">
         <v>120.00</v>
       </c>
       <c r="J199" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K199" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="200">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>2688</v>
+        <v>2501</v>
       </c>
       <c r="I200" t="str">
         <v>120.00</v>
@@ -7426,16 +7426,16 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>7578</v>
+        <v>4253</v>
       </c>
       <c r="I201" t="str">
         <v>120.00</v>
       </c>
       <c r="J201" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K201" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="202">
@@ -7461,16 +7461,16 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>5896</v>
+        <v>5536</v>
       </c>
       <c r="I202" t="str">
         <v>120.00</v>
       </c>
       <c r="J202" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K202" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="203">
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>2837</v>
+        <v>7983</v>
       </c>
       <c r="I203" t="str">
         <v>120.00</v>
@@ -7531,16 +7531,16 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>5078</v>
+        <v>6794</v>
       </c>
       <c r="I204" t="str">
         <v>120.00</v>
       </c>
       <c r="J204" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K204" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="205">
@@ -7566,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>4537</v>
+        <v>9563</v>
       </c>
       <c r="I205" t="str">
         <v>120.00</v>
@@ -7601,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>5500</v>
+        <v>5034</v>
       </c>
       <c r="I206" t="str">
         <v>120.00</v>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
       <c r="H207">
-        <v>3974</v>
+        <v>3250</v>
       </c>
       <c r="I207" t="str">
         <v>120.00</v>
@@ -7671,16 +7671,16 @@
         <v>0</v>
       </c>
       <c r="H208">
-        <v>1117</v>
+        <v>1841</v>
       </c>
       <c r="I208" t="str">
         <v>120.00</v>
       </c>
       <c r="J208" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K208" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="209">
@@ -7706,16 +7706,16 @@
         <v>0</v>
       </c>
       <c r="H209">
-        <v>1972</v>
+        <v>5116</v>
       </c>
       <c r="I209" t="str">
         <v>120.00</v>
       </c>
       <c r="J209" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K209" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="210">
@@ -7741,16 +7741,16 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>2752</v>
+        <v>5286</v>
       </c>
       <c r="I210" t="str">
         <v>120.00</v>
       </c>
       <c r="J210" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K210" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="211">
@@ -7776,16 +7776,16 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>5498</v>
+        <v>8739</v>
       </c>
       <c r="I211" t="str">
         <v>90.00</v>
       </c>
       <c r="J211" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K211" t="str">
-        <v>85.50</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="212">
@@ -7811,16 +7811,16 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>2828</v>
+        <v>2873</v>
       </c>
       <c r="I212" t="str">
         <v>120.00</v>
       </c>
       <c r="J212" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K212" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="213">
@@ -7846,16 +7846,16 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>2399</v>
+        <v>2426</v>
       </c>
       <c r="I213" t="str">
         <v>120.00</v>
       </c>
       <c r="J213" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K213" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="214">
@@ -7881,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>3187</v>
+        <v>7936</v>
       </c>
       <c r="I214" t="str">
         <v>120.00</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>1574</v>
+        <v>7769</v>
       </c>
       <c r="I215" t="str">
         <v>120.00</v>
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>3684</v>
+        <v>7704</v>
       </c>
       <c r="I216" t="str">
         <v>120.00</v>
@@ -7986,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>8662</v>
+        <v>4225</v>
       </c>
       <c r="I217" t="str">
         <v>120.00</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>8402</v>
+        <v>5189</v>
       </c>
       <c r="I218" t="str">
         <v>120.00</v>
@@ -8056,16 +8056,16 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>7614</v>
+        <v>4774</v>
       </c>
       <c r="I219" t="str">
         <v>120.00</v>
       </c>
       <c r="J219" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K219" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="220">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>7569</v>
+        <v>3041</v>
       </c>
       <c r="I220" t="str">
         <v>120.00</v>
@@ -8126,16 +8126,16 @@
         <v>0</v>
       </c>
       <c r="H221">
-        <v>3156</v>
+        <v>2244</v>
       </c>
       <c r="I221" t="str">
         <v>120.00</v>
       </c>
       <c r="J221" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K221" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="222">
@@ -8161,16 +8161,16 @@
         <v>0</v>
       </c>
       <c r="H222">
-        <v>8066</v>
+        <v>9520</v>
       </c>
       <c r="I222" t="str">
         <v>120.00</v>
       </c>
       <c r="J222" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K222" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="223">
@@ -8196,16 +8196,16 @@
         <v>0</v>
       </c>
       <c r="H223">
-        <v>1450</v>
+        <v>4252</v>
       </c>
       <c r="I223" t="str">
         <v>120.00</v>
       </c>
       <c r="J223" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K223" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="224">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="H224">
-        <v>8924</v>
+        <v>5519</v>
       </c>
       <c r="I224" t="str">
         <v>120.00</v>
@@ -8266,16 +8266,16 @@
         <v>0</v>
       </c>
       <c r="H225">
-        <v>7212</v>
+        <v>1221</v>
       </c>
       <c r="I225" t="str">
         <v>120.00</v>
       </c>
       <c r="J225" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K225" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="226">
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>2990</v>
+        <v>5375</v>
       </c>
       <c r="I226" t="str">
         <v>120.00</v>
       </c>
       <c r="J226" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K226" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="227">
@@ -8336,16 +8336,16 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>1918</v>
+        <v>9910</v>
       </c>
       <c r="I227" t="str">
         <v>120.00</v>
       </c>
       <c r="J227" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K227" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="228">
@@ -8371,16 +8371,16 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>6870</v>
+        <v>7991</v>
       </c>
       <c r="I228" t="str">
         <v>120.00</v>
       </c>
       <c r="J228" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K228" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="229">
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>6103</v>
+        <v>7267</v>
       </c>
       <c r="I229" t="str">
         <v>120.00</v>
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>8265</v>
+        <v>1446</v>
       </c>
       <c r="I230" t="str">
         <v>120.00</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>4236</v>
+        <v>6055</v>
       </c>
       <c r="I231" t="str">
         <v>120.00</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>1540</v>
+        <v>6552</v>
       </c>
       <c r="I232" t="str">
         <v>120.00</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>2980</v>
+        <v>1826</v>
       </c>
       <c r="I233" t="str">
         <v>120.00</v>
       </c>
       <c r="J233" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K233" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="234">
@@ -8581,16 +8581,16 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>5451</v>
+        <v>7930</v>
       </c>
       <c r="I234" t="str">
         <v>90.00</v>
       </c>
       <c r="J234" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K234" t="str">
-        <v>81.00</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="235">
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>6758</v>
+        <v>5775</v>
       </c>
       <c r="I235" t="str">
         <v>120.00</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="H236">
-        <v>8616</v>
+        <v>4687</v>
       </c>
       <c r="I236" t="str">
         <v>120.00</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="H237">
-        <v>9807</v>
+        <v>1389</v>
       </c>
       <c r="I237" t="str">
         <v>120.00</v>
@@ -8721,16 +8721,16 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>9778</v>
+        <v>1592</v>
       </c>
       <c r="I238" t="str">
         <v>120.00</v>
       </c>
       <c r="J238" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K238" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="239">
@@ -8756,16 +8756,16 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>2975</v>
+        <v>5928</v>
       </c>
       <c r="I239" t="str">
         <v>120.00</v>
       </c>
       <c r="J239" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K239" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="240">
@@ -8791,16 +8791,16 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>7320</v>
+        <v>7779</v>
       </c>
       <c r="I240" t="str">
         <v>120.00</v>
       </c>
       <c r="J240" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K240" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="241">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>3693</v>
+        <v>5027</v>
       </c>
       <c r="I241" t="str">
         <v>120.00</v>
@@ -8861,16 +8861,16 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>2633</v>
+        <v>7666</v>
       </c>
       <c r="I242" t="str">
         <v>120.00</v>
       </c>
       <c r="J242" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K242" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="243">
@@ -8896,16 +8896,16 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>2174</v>
+        <v>6974</v>
       </c>
       <c r="I243" t="str">
         <v>120.00</v>
       </c>
       <c r="J243" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K243" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="244">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>2201</v>
+        <v>8968</v>
       </c>
       <c r="I244" t="str">
         <v>120.00</v>
@@ -8966,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>5092</v>
+        <v>5458</v>
       </c>
       <c r="I245" t="str">
         <v>120.00</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>3277</v>
+        <v>2812</v>
       </c>
       <c r="I246" t="str">
         <v>120.00</v>
@@ -9036,16 +9036,16 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>1643</v>
+        <v>1739</v>
       </c>
       <c r="I247" t="str">
         <v>120.00</v>
       </c>
       <c r="J247" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K247" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="248">
@@ -9071,16 +9071,16 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>8740</v>
+        <v>9792</v>
       </c>
       <c r="I248" t="str">
         <v>120.00</v>
       </c>
       <c r="J248" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K248" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="249">
@@ -9106,16 +9106,16 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>9592</v>
+        <v>4671</v>
       </c>
       <c r="I249" t="str">
         <v>120.00</v>
       </c>
       <c r="J249" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K249" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="250">
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>1975</v>
+        <v>2260</v>
       </c>
       <c r="I250" t="str">
         <v>120.00</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>8224</v>
+        <v>7555</v>
       </c>
       <c r="I251" t="str">
         <v>120.00</v>
       </c>
       <c r="J251" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K251" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="252">
@@ -9211,16 +9211,16 @@
         <v>0</v>
       </c>
       <c r="H252">
-        <v>9564</v>
+        <v>5461</v>
       </c>
       <c r="I252" t="str">
         <v>120.00</v>
       </c>
       <c r="J252" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K252" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="253">
@@ -9246,16 +9246,16 @@
         <v>0</v>
       </c>
       <c r="H253">
-        <v>9453</v>
+        <v>1161</v>
       </c>
       <c r="I253" t="str">
         <v>120.00</v>
       </c>
       <c r="J253" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K253" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="254">
@@ -9281,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="H254">
-        <v>6339</v>
+        <v>4085</v>
       </c>
       <c r="I254" t="str">
         <v>120.00</v>
@@ -9316,16 +9316,16 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>4510</v>
+        <v>1634</v>
       </c>
       <c r="I255" t="str">
         <v>120.00</v>
       </c>
       <c r="J255" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K255" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="256">
@@ -9351,16 +9351,16 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>2268</v>
+        <v>4714</v>
       </c>
       <c r="I256" t="str">
         <v>120.00</v>
       </c>
       <c r="J256" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K256" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="257">
@@ -9386,16 +9386,16 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>9628</v>
+        <v>6920</v>
       </c>
       <c r="I257" t="str">
         <v>120.00</v>
       </c>
       <c r="J257" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K257" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="258">
@@ -9421,16 +9421,16 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>8646</v>
+        <v>7539</v>
       </c>
       <c r="I258" t="str">
         <v>120.00</v>
       </c>
       <c r="J258" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K258" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="259">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>4800</v>
+        <v>5571</v>
       </c>
       <c r="I259" t="str">
         <v>120.00</v>
@@ -9491,7 +9491,7 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>1768</v>
+        <v>8449</v>
       </c>
       <c r="I260" t="str">
         <v>90.00</v>
@@ -9526,7 +9526,7 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>3892</v>
+        <v>1687</v>
       </c>
       <c r="I261" t="str">
         <v>120.00</v>
@@ -9561,16 +9561,16 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>1344</v>
+        <v>2471</v>
       </c>
       <c r="I262" t="str">
         <v>120.00</v>
       </c>
       <c r="J262" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K262" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="263">
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>2756</v>
+        <v>7766</v>
       </c>
       <c r="I263" t="str">
         <v>120.00</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>3683</v>
+        <v>1669</v>
       </c>
       <c r="I264" t="str">
         <v>120.00</v>
@@ -9666,16 +9666,16 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>5749</v>
+        <v>7890</v>
       </c>
       <c r="I265" t="str">
         <v>120.00</v>
       </c>
       <c r="J265" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K265" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="266">
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="H266">
-        <v>4527</v>
+        <v>4850</v>
       </c>
       <c r="I266" t="str">
         <v>120.00</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H267">
-        <v>6712</v>
+        <v>7504</v>
       </c>
       <c r="I267" t="str">
         <v>120.00</v>
@@ -9771,16 +9771,16 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>7017</v>
+        <v>9445</v>
       </c>
       <c r="I268" t="str">
         <v>120.00</v>
       </c>
       <c r="J268" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K268" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="269">
@@ -9806,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="H269">
-        <v>9711</v>
+        <v>1140</v>
       </c>
       <c r="I269" t="str">
         <v>120.00</v>
@@ -9841,16 +9841,16 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>1335</v>
+        <v>4758</v>
       </c>
       <c r="I270" t="str">
         <v>120.00</v>
       </c>
       <c r="J270" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K270" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="271">
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>5132</v>
+        <v>5460</v>
       </c>
       <c r="I271" t="str">
         <v>120.00</v>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>5956</v>
+        <v>4392</v>
       </c>
       <c r="I272" t="str">
         <v>120.00</v>
@@ -9946,16 +9946,16 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>5906</v>
+        <v>9875</v>
       </c>
       <c r="I273" t="str">
         <v>120.00</v>
       </c>
       <c r="J273" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K273" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="274">
@@ -9981,7 +9981,7 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>2750</v>
+        <v>3325</v>
       </c>
       <c r="I274" t="str">
         <v>120.00</v>
@@ -10016,16 +10016,16 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>6542</v>
+        <v>5580</v>
       </c>
       <c r="I275" t="str">
         <v>120.00</v>
       </c>
       <c r="J275" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K275" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="276">
@@ -10051,16 +10051,16 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>1273</v>
+        <v>4235</v>
       </c>
       <c r="I276" t="str">
         <v>120.00</v>
       </c>
       <c r="J276" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K276" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="277">
@@ -10086,16 +10086,16 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>2637</v>
+        <v>9832</v>
       </c>
       <c r="I277" t="str">
         <v>120.00</v>
       </c>
       <c r="J277" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K277" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="278">
@@ -10121,16 +10121,16 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>3478</v>
+        <v>3485</v>
       </c>
       <c r="I278" t="str">
         <v>120.00</v>
       </c>
       <c r="J278" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K278" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="279">
@@ -10156,16 +10156,16 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>1740</v>
+        <v>2492</v>
       </c>
       <c r="I279" t="str">
         <v>120.00</v>
       </c>
       <c r="J279" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K279" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="280">
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>3632</v>
+        <v>8085</v>
       </c>
       <c r="I280" t="str">
         <v>120.00</v>
       </c>
       <c r="J280" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K280" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="281">
@@ -10226,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="H281">
-        <v>6042</v>
+        <v>4056</v>
       </c>
       <c r="I281" t="str">
         <v>120.00</v>
@@ -10261,16 +10261,16 @@
         <v>0</v>
       </c>
       <c r="H282">
-        <v>9791</v>
+        <v>2091</v>
       </c>
       <c r="I282" t="str">
         <v>120.00</v>
       </c>
       <c r="J282" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K282" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="283">
@@ -10296,16 +10296,16 @@
         <v>0</v>
       </c>
       <c r="H283">
-        <v>7297</v>
+        <v>6529</v>
       </c>
       <c r="I283" t="str">
         <v>120.00</v>
       </c>
       <c r="J283" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K283" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="284">
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="H284">
-        <v>6986</v>
+        <v>4223</v>
       </c>
       <c r="I284" t="str">
         <v>120.00</v>
@@ -10366,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>6114</v>
+        <v>2204</v>
       </c>
       <c r="I285" t="str">
         <v>120.00</v>
       </c>
       <c r="J285" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K285" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="286">
@@ -10401,16 +10401,16 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <v>7874</v>
+        <v>1800</v>
       </c>
       <c r="I286" t="str">
         <v>120.00</v>
       </c>
       <c r="J286" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K286" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="287">
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>5946</v>
+        <v>7937</v>
       </c>
       <c r="I287" t="str">
         <v>90.00</v>
@@ -10471,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <v>3464</v>
+        <v>6769</v>
       </c>
       <c r="I288" t="str">
         <v>120.00</v>
@@ -10506,16 +10506,16 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>9956</v>
+        <v>2946</v>
       </c>
       <c r="I289" t="str">
         <v>120.00</v>
       </c>
       <c r="J289" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K289" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="290">
@@ -10541,16 +10541,16 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>6330</v>
+        <v>2264</v>
       </c>
       <c r="I290" t="str">
         <v>120.00</v>
       </c>
       <c r="J290" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K290" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="291">
@@ -10576,16 +10576,16 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>8268</v>
+        <v>2303</v>
       </c>
       <c r="I291" t="str">
         <v>120.00</v>
       </c>
       <c r="J291" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K291" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="292">
@@ -10611,16 +10611,16 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>7591</v>
+        <v>4668</v>
       </c>
       <c r="I292" t="str">
         <v>120.00</v>
       </c>
       <c r="J292" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K292" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="293">
@@ -10646,7 +10646,7 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <v>1042</v>
+        <v>7936</v>
       </c>
       <c r="I293" t="str">
         <v>120.00</v>
@@ -10681,16 +10681,16 @@
         <v>0</v>
       </c>
       <c r="H294">
-        <v>9295</v>
+        <v>2109</v>
       </c>
       <c r="I294" t="str">
         <v>120.00</v>
       </c>
       <c r="J294" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K294" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="295">
@@ -10716,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="H295">
-        <v>3002</v>
+        <v>8685</v>
       </c>
       <c r="I295" t="str">
         <v>120.00</v>
@@ -10751,16 +10751,16 @@
         <v>0</v>
       </c>
       <c r="H296">
-        <v>3953</v>
+        <v>9056</v>
       </c>
       <c r="I296" t="str">
         <v>120.00</v>
       </c>
       <c r="J296" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K296" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="297">
@@ -10786,16 +10786,16 @@
         <v>0</v>
       </c>
       <c r="H297">
-        <v>2269</v>
+        <v>7209</v>
       </c>
       <c r="I297" t="str">
         <v>120.00</v>
       </c>
       <c r="J297" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K297" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="298">
@@ -10821,16 +10821,16 @@
         <v>0</v>
       </c>
       <c r="H298">
-        <v>5418</v>
+        <v>3607</v>
       </c>
       <c r="I298" t="str">
         <v>120.00</v>
       </c>
       <c r="J298" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K298" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="299">
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="H299">
-        <v>2805</v>
+        <v>2055</v>
       </c>
       <c r="I299" t="str">
         <v>120.00</v>
@@ -10891,16 +10891,16 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>5841</v>
+        <v>5612</v>
       </c>
       <c r="I300" t="str">
         <v>120.00</v>
       </c>
       <c r="J300" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K300" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="301">
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>7955</v>
+        <v>2158</v>
       </c>
       <c r="I301" t="str">
         <v>120.00</v>
@@ -10961,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>5488</v>
+        <v>5836</v>
       </c>
       <c r="I302" t="str">
         <v>120.00</v>
@@ -10996,16 +10996,16 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <v>4877</v>
+        <v>9890</v>
       </c>
       <c r="I303" t="str">
         <v>120.00</v>
       </c>
       <c r="J303" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K303" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="304">
@@ -11031,16 +11031,16 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <v>1316</v>
+        <v>6184</v>
       </c>
       <c r="I304" t="str">
         <v>120.00</v>
       </c>
       <c r="J304" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K304" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="305">
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>8046</v>
+        <v>5819</v>
       </c>
       <c r="I305" t="str">
         <v>120.00</v>
       </c>
       <c r="J305" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K305" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="306">
@@ -11101,16 +11101,16 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>6989</v>
+        <v>7177</v>
       </c>
       <c r="I306" t="str">
         <v>120.00</v>
       </c>
       <c r="J306" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K306" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="307">
@@ -11136,7 +11136,7 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>7635</v>
+        <v>5367</v>
       </c>
       <c r="I307" t="str">
         <v>120.00</v>
@@ -11171,16 +11171,16 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>9201</v>
+        <v>4421</v>
       </c>
       <c r="I308" t="str">
         <v>120.00</v>
       </c>
       <c r="J308" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K308" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="309">
@@ -11206,16 +11206,16 @@
         <v>0</v>
       </c>
       <c r="H309">
-        <v>9327</v>
+        <v>7291</v>
       </c>
       <c r="I309" t="str">
         <v>120.00</v>
       </c>
       <c r="J309" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K309" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="310">
@@ -11241,16 +11241,16 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>5139</v>
+        <v>9120</v>
       </c>
       <c r="I310" t="str">
         <v>120.00</v>
       </c>
       <c r="J310" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K310" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="311">
@@ -11276,16 +11276,16 @@
         <v>0</v>
       </c>
       <c r="H311">
-        <v>6124</v>
+        <v>8381</v>
       </c>
       <c r="I311" t="str">
         <v>120.00</v>
       </c>
       <c r="J311" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K311" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="312">
@@ -11311,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="H312">
-        <v>6311</v>
+        <v>5498</v>
       </c>
       <c r="I312" t="str">
         <v>120.00</v>
       </c>
       <c r="J312" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K312" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="313">
@@ -11346,16 +11346,16 @@
         <v>0</v>
       </c>
       <c r="H313">
-        <v>1672</v>
+        <v>6925</v>
       </c>
       <c r="I313" t="str">
         <v>120.00</v>
       </c>
       <c r="J313" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K313" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="314">
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="H314">
-        <v>8839</v>
+        <v>5942</v>
       </c>
       <c r="I314" t="str">
         <v>120.00</v>
@@ -11416,16 +11416,16 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>4267</v>
+        <v>8870</v>
       </c>
       <c r="I315" t="str">
         <v>120.00</v>
       </c>
       <c r="J315" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K315" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="316">
@@ -11451,16 +11451,16 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>1419</v>
+        <v>4861</v>
       </c>
       <c r="I316" t="str">
         <v>90.00</v>
       </c>
       <c r="J316" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K316" t="str">
-        <v>81.00</v>
+        <v>90.00</v>
       </c>
     </row>
     <row r="317">
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>9389</v>
+        <v>5796</v>
       </c>
       <c r="I317" t="str">
         <v>120.00</v>
@@ -11521,16 +11521,16 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>4999</v>
+        <v>5995</v>
       </c>
       <c r="I318" t="str">
         <v>120.00</v>
       </c>
       <c r="J318" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K318" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="319">
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>7590</v>
+        <v>9690</v>
       </c>
       <c r="I319" t="str">
         <v>120.00</v>
@@ -11591,16 +11591,16 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>2620</v>
+        <v>9975</v>
       </c>
       <c r="I320" t="str">
         <v>120.00</v>
       </c>
       <c r="J320" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K320" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="321">
@@ -11626,16 +11626,16 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <v>2169</v>
+        <v>2325</v>
       </c>
       <c r="I321" t="str">
         <v>120.00</v>
       </c>
       <c r="J321" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K321" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="322">
@@ -11661,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <v>7492</v>
+        <v>7198</v>
       </c>
       <c r="I322" t="str">
         <v>120.00</v>
@@ -11696,7 +11696,7 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <v>4195</v>
+        <v>4270</v>
       </c>
       <c r="I323" t="str">
         <v>120.00</v>
@@ -11731,16 +11731,16 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>7405</v>
+        <v>5991</v>
       </c>
       <c r="I324" t="str">
         <v>120.00</v>
       </c>
       <c r="J324" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K324" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="325">
@@ -11766,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>3069</v>
+        <v>5031</v>
       </c>
       <c r="I325" t="str">
         <v>120.00</v>
@@ -11801,16 +11801,16 @@
         <v>0</v>
       </c>
       <c r="H326">
-        <v>6965</v>
+        <v>7116</v>
       </c>
       <c r="I326" t="str">
         <v>120.00</v>
       </c>
       <c r="J326" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K326" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="327">
@@ -11836,16 +11836,16 @@
         <v>0</v>
       </c>
       <c r="H327">
-        <v>6225</v>
+        <v>4531</v>
       </c>
       <c r="I327" t="str">
         <v>120.00</v>
       </c>
       <c r="J327" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K327" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="328">
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="H328">
-        <v>7194</v>
+        <v>3595</v>
       </c>
       <c r="I328" t="str">
         <v>120.00</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="H329">
-        <v>8334</v>
+        <v>7213</v>
       </c>
       <c r="I329" t="str">
         <v>120.00</v>
@@ -11941,7 +11941,7 @@
         <v>0</v>
       </c>
       <c r="H330">
-        <v>2982</v>
+        <v>1558</v>
       </c>
       <c r="I330" t="str">
         <v>120.00</v>
@@ -11976,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>6682</v>
+        <v>7967</v>
       </c>
       <c r="I331" t="str">
         <v>120.00</v>
@@ -12011,16 +12011,16 @@
         <v>0</v>
       </c>
       <c r="H332">
-        <v>2216</v>
+        <v>8496</v>
       </c>
       <c r="I332" t="str">
         <v>120.00</v>
       </c>
       <c r="J332" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K332" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="333">
@@ -12046,16 +12046,16 @@
         <v>0</v>
       </c>
       <c r="H333">
-        <v>9878</v>
+        <v>5286</v>
       </c>
       <c r="I333" t="str">
         <v>120.00</v>
       </c>
       <c r="J333" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K333" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="334">
@@ -12081,16 +12081,16 @@
         <v>0</v>
       </c>
       <c r="H334">
-        <v>9823</v>
+        <v>8262</v>
       </c>
       <c r="I334" t="str">
         <v>120.00</v>
       </c>
       <c r="J334" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K334" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="335">
@@ -12116,16 +12116,16 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>6658</v>
+        <v>8073</v>
       </c>
       <c r="I335" t="str">
         <v>120.00</v>
       </c>
       <c r="J335" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K335" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="336">
@@ -12151,16 +12151,16 @@
         <v>0</v>
       </c>
       <c r="H336">
-        <v>3865</v>
+        <v>4558</v>
       </c>
       <c r="I336" t="str">
         <v>120.00</v>
       </c>
       <c r="J336" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K336" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="337">
@@ -12186,16 +12186,16 @@
         <v>0</v>
       </c>
       <c r="H337">
-        <v>4592</v>
+        <v>1113</v>
       </c>
       <c r="I337" t="str">
         <v>120.00</v>
       </c>
       <c r="J337" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K337" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="338">
@@ -12221,16 +12221,16 @@
         <v>0</v>
       </c>
       <c r="H338">
-        <v>6995</v>
+        <v>4438</v>
       </c>
       <c r="I338" t="str">
         <v>120.00</v>
       </c>
       <c r="J338" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K338" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="339">
@@ -12256,16 +12256,16 @@
         <v>0</v>
       </c>
       <c r="H339">
-        <v>6824</v>
+        <v>3226</v>
       </c>
       <c r="I339" t="str">
         <v>120.00</v>
       </c>
       <c r="J339" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K339" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="340">
@@ -12291,16 +12291,16 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <v>9116</v>
+        <v>5930</v>
       </c>
       <c r="I340" t="str">
         <v>120.00</v>
       </c>
       <c r="J340" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K340" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="341">
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="H341">
-        <v>5896</v>
+        <v>7214</v>
       </c>
       <c r="I341" t="str">
         <v>120.00</v>
@@ -12361,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="H342">
-        <v>5935</v>
+        <v>2062</v>
       </c>
       <c r="I342" t="str">
         <v>120.00</v>
@@ -12396,16 +12396,16 @@
         <v>0</v>
       </c>
       <c r="H343">
-        <v>3782</v>
+        <v>7537</v>
       </c>
       <c r="I343" t="str">
         <v>120.00</v>
       </c>
       <c r="J343" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K343" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="344">
@@ -12431,16 +12431,16 @@
         <v>0</v>
       </c>
       <c r="H344">
-        <v>6749</v>
+        <v>8998</v>
       </c>
       <c r="I344" t="str">
         <v>120.00</v>
       </c>
       <c r="J344" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K344" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="345">
@@ -12466,16 +12466,16 @@
         <v>0</v>
       </c>
       <c r="H345">
-        <v>2537</v>
+        <v>4994</v>
       </c>
       <c r="I345" t="str">
         <v>120.00</v>
       </c>
       <c r="J345" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K345" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="346">
@@ -12501,16 +12501,16 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <v>8325</v>
+        <v>5060</v>
       </c>
       <c r="I346" t="str">
         <v>120.00</v>
       </c>
       <c r="J346" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K346" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="347">
@@ -12536,7 +12536,7 @@
         <v>0</v>
       </c>
       <c r="H347">
-        <v>5102</v>
+        <v>6190</v>
       </c>
       <c r="I347" t="str">
         <v>120.00</v>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="H348">
-        <v>2034</v>
+        <v>3503</v>
       </c>
       <c r="I348" t="str">
         <v>120.00</v>
@@ -12606,7 +12606,7 @@
         <v>0</v>
       </c>
       <c r="H349">
-        <v>7120</v>
+        <v>1885</v>
       </c>
       <c r="I349" t="str">
         <v>120.00</v>
@@ -12641,16 +12641,16 @@
         <v>0</v>
       </c>
       <c r="H350">
-        <v>7474</v>
+        <v>3272</v>
       </c>
       <c r="I350" t="str">
         <v>120.00</v>
       </c>
       <c r="J350" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K350" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="351">
@@ -12676,16 +12676,16 @@
         <v>0</v>
       </c>
       <c r="H351">
-        <v>8856</v>
+        <v>5412</v>
       </c>
       <c r="I351" t="str">
         <v>120.00</v>
       </c>
       <c r="J351" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K351" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="352">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="H352">
-        <v>6216</v>
+        <v>3308</v>
       </c>
       <c r="I352" t="str">
         <v>90.00</v>
@@ -12746,16 +12746,16 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>5504</v>
+        <v>9059</v>
       </c>
       <c r="I353" t="str">
         <v>120.00</v>
       </c>
       <c r="J353" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K353" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="354">
@@ -12781,16 +12781,16 @@
         <v>0</v>
       </c>
       <c r="H354">
-        <v>3497</v>
+        <v>9729</v>
       </c>
       <c r="I354" t="str">
         <v>120.00</v>
       </c>
       <c r="J354" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K354" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="355">
@@ -12816,16 +12816,16 @@
         <v>0</v>
       </c>
       <c r="H355">
-        <v>9267</v>
+        <v>7743</v>
       </c>
       <c r="I355" t="str">
         <v>120.00</v>
       </c>
       <c r="J355" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K355" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="356">
@@ -12851,16 +12851,16 @@
         <v>0</v>
       </c>
       <c r="H356">
-        <v>2403</v>
+        <v>4390</v>
       </c>
       <c r="I356" t="str">
         <v>120.00</v>
       </c>
       <c r="J356" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K356" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="357">
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="H357">
-        <v>1306</v>
+        <v>1406</v>
       </c>
       <c r="I357" t="str">
         <v>120.00</v>
@@ -12921,16 +12921,16 @@
         <v>0</v>
       </c>
       <c r="H358">
-        <v>1764</v>
+        <v>7822</v>
       </c>
       <c r="I358" t="str">
         <v>120.00</v>
       </c>
       <c r="J358" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K358" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="359">
@@ -12956,16 +12956,16 @@
         <v>0</v>
       </c>
       <c r="H359">
-        <v>6635</v>
+        <v>5910</v>
       </c>
       <c r="I359" t="str">
         <v>120.00</v>
       </c>
       <c r="J359" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K359" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="360">
@@ -12991,16 +12991,16 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <v>5644</v>
+        <v>2804</v>
       </c>
       <c r="I360" t="str">
         <v>120.00</v>
       </c>
       <c r="J360" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K360" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="361">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="H361">
-        <v>7479</v>
+        <v>8621</v>
       </c>
       <c r="I361" t="str">
         <v>120.00</v>
@@ -13061,16 +13061,16 @@
         <v>0</v>
       </c>
       <c r="H362">
-        <v>7458</v>
+        <v>7276</v>
       </c>
       <c r="I362" t="str">
         <v>120.00</v>
       </c>
       <c r="J362" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K362" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="363">
@@ -13096,16 +13096,16 @@
         <v>0</v>
       </c>
       <c r="H363">
-        <v>8822</v>
+        <v>3466</v>
       </c>
       <c r="I363" t="str">
         <v>120.00</v>
       </c>
       <c r="J363" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K363" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="364">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="H364">
-        <v>6648</v>
+        <v>3304</v>
       </c>
       <c r="I364" t="str">
         <v>120.00</v>
@@ -13166,16 +13166,16 @@
         <v>0</v>
       </c>
       <c r="H365">
-        <v>9948</v>
+        <v>9843</v>
       </c>
       <c r="I365" t="str">
         <v>120.00</v>
       </c>
       <c r="J365" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K365" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="366">
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <v>3384</v>
+        <v>6284</v>
       </c>
       <c r="I366" t="str">
         <v>120.00</v>
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>4180</v>
+        <v>5026</v>
       </c>
       <c r="I367" t="str">
         <v>120.00</v>
@@ -13271,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="H368">
-        <v>5742</v>
+        <v>8417</v>
       </c>
       <c r="I368" t="str">
         <v>120.00</v>
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="H369">
-        <v>1739</v>
+        <v>7830</v>
       </c>
       <c r="I369" t="str">
         <v>120.00</v>
@@ -13341,16 +13341,16 @@
         <v>0</v>
       </c>
       <c r="H370">
-        <v>8925</v>
+        <v>5605</v>
       </c>
       <c r="I370" t="str">
         <v>120.00</v>
       </c>
       <c r="J370" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K370" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="371">
@@ -13376,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="H371">
-        <v>6370</v>
+        <v>3715</v>
       </c>
       <c r="I371" t="str">
         <v>120.00</v>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="H372">
-        <v>9235</v>
+        <v>1751</v>
       </c>
       <c r="I372" t="str">
         <v>120.00</v>
@@ -13446,16 +13446,16 @@
         <v>0</v>
       </c>
       <c r="H373">
-        <v>8723</v>
+        <v>2396</v>
       </c>
       <c r="I373" t="str">
         <v>120.00</v>
       </c>
       <c r="J373" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K373" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="374">
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="H374">
-        <v>3468</v>
+        <v>3640</v>
       </c>
       <c r="I374" t="str">
         <v>120.00</v>
@@ -13516,16 +13516,16 @@
         <v>0</v>
       </c>
       <c r="H375">
-        <v>4997</v>
+        <v>2880</v>
       </c>
       <c r="I375" t="str">
         <v>120.00</v>
       </c>
       <c r="J375" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K375" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="376">
@@ -13551,16 +13551,16 @@
         <v>0</v>
       </c>
       <c r="H376">
-        <v>6524</v>
+        <v>3233</v>
       </c>
       <c r="I376" t="str">
         <v>120.00</v>
       </c>
       <c r="J376" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K376" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="377">
@@ -13586,16 +13586,16 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>9869</v>
+        <v>4013</v>
       </c>
       <c r="I377" t="str">
         <v>120.00</v>
       </c>
       <c r="J377" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K377" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="378">
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <v>4605</v>
+        <v>9781</v>
       </c>
       <c r="I378" t="str">
         <v>120.00</v>
@@ -13656,16 +13656,16 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <v>4003</v>
+        <v>7485</v>
       </c>
       <c r="I379" t="str">
         <v>120.00</v>
       </c>
       <c r="J379" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K379" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="380">
@@ -13691,16 +13691,16 @@
         <v>0</v>
       </c>
       <c r="H380">
-        <v>3085</v>
+        <v>2360</v>
       </c>
       <c r="I380" t="str">
         <v>120.00</v>
       </c>
       <c r="J380" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K380" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="381">
@@ -13726,16 +13726,16 @@
         <v>0</v>
       </c>
       <c r="H381">
-        <v>9514</v>
+        <v>3584</v>
       </c>
       <c r="I381" t="str">
         <v>120.00</v>
       </c>
       <c r="J381" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K381" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="382">
@@ -13761,16 +13761,16 @@
         <v>0</v>
       </c>
       <c r="H382">
-        <v>7077</v>
+        <v>7925</v>
       </c>
       <c r="I382" t="str">
         <v>120.00</v>
       </c>
       <c r="J382" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K382" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="383">
@@ -13796,16 +13796,16 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <v>5192</v>
+        <v>4756</v>
       </c>
       <c r="I383" t="str">
         <v>120.00</v>
       </c>
       <c r="J383" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K383" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="384">
@@ -13831,16 +13831,16 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <v>6347</v>
+        <v>5200</v>
       </c>
       <c r="I384" t="str">
         <v>120.00</v>
       </c>
       <c r="J384" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K384" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="385">
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="H385">
-        <v>8728</v>
+        <v>2370</v>
       </c>
       <c r="I385" t="str">
         <v>120.00</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="H386">
-        <v>5144</v>
+        <v>4243</v>
       </c>
       <c r="I386" t="str">
         <v>120.00</v>
@@ -13936,16 +13936,16 @@
         <v>0</v>
       </c>
       <c r="H387">
-        <v>3733</v>
+        <v>2393</v>
       </c>
       <c r="I387" t="str">
         <v>120.00</v>
       </c>
       <c r="J387" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K387" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="388">
@@ -13971,16 +13971,16 @@
         <v>0</v>
       </c>
       <c r="H388">
-        <v>7382</v>
+        <v>2121</v>
       </c>
       <c r="I388" t="str">
         <v>90.00</v>
       </c>
       <c r="J388" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K388" t="str">
-        <v>90.00</v>
+        <v>85.50</v>
       </c>
     </row>
     <row r="389">
@@ -14006,16 +14006,16 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <v>9298</v>
+        <v>8742</v>
       </c>
       <c r="I389" t="str">
         <v>120.00</v>
       </c>
       <c r="J389" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K389" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="390">
@@ -14041,16 +14041,16 @@
         <v>0</v>
       </c>
       <c r="H390">
-        <v>3760</v>
+        <v>3420</v>
       </c>
       <c r="I390" t="str">
         <v>120.00</v>
       </c>
       <c r="J390" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K390" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="391">
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>4519</v>
+        <v>1026</v>
       </c>
       <c r="I391" t="str">
         <v>120.00</v>
@@ -14111,7 +14111,7 @@
         <v>0</v>
       </c>
       <c r="H392">
-        <v>3417</v>
+        <v>7389</v>
       </c>
       <c r="I392" t="str">
         <v>120.00</v>
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="H393">
-        <v>8628</v>
+        <v>9903</v>
       </c>
       <c r="I393" t="str">
         <v>120.00</v>
@@ -14181,16 +14181,16 @@
         <v>0</v>
       </c>
       <c r="H394">
-        <v>8712</v>
+        <v>8142</v>
       </c>
       <c r="I394" t="str">
         <v>120.00</v>
       </c>
       <c r="J394" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K394" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="395">
@@ -14216,16 +14216,16 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <v>8202</v>
+        <v>6265</v>
       </c>
       <c r="I395" t="str">
         <v>120.00</v>
       </c>
       <c r="J395" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K395" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="396">
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <v>2551</v>
+        <v>3574</v>
       </c>
       <c r="I396" t="str">
         <v>120.00</v>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
       <c r="H397">
-        <v>4128</v>
+        <v>9533</v>
       </c>
       <c r="I397" t="str">
         <v>120.00</v>
@@ -14321,16 +14321,16 @@
         <v>0</v>
       </c>
       <c r="H398">
-        <v>4926</v>
+        <v>4563</v>
       </c>
       <c r="I398" t="str">
         <v>120.00</v>
       </c>
       <c r="J398" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K398" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="399">
@@ -14356,16 +14356,16 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>2961</v>
+        <v>8468</v>
       </c>
       <c r="I399" t="str">
         <v>120.00</v>
       </c>
       <c r="J399" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K399" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="400">
@@ -14391,16 +14391,16 @@
         <v>0</v>
       </c>
       <c r="H400">
-        <v>1212</v>
+        <v>9535</v>
       </c>
       <c r="I400" t="str">
         <v>120.00</v>
       </c>
       <c r="J400" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K400" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="401">
@@ -14426,16 +14426,16 @@
         <v>0</v>
       </c>
       <c r="H401">
-        <v>1553</v>
+        <v>1527</v>
       </c>
       <c r="I401" t="str">
         <v>120.00</v>
       </c>
       <c r="J401" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K401" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="402">
@@ -14461,16 +14461,16 @@
         <v>0</v>
       </c>
       <c r="H402">
-        <v>9151</v>
+        <v>4180</v>
       </c>
       <c r="I402" t="str">
         <v>120.00</v>
       </c>
       <c r="J402" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K402" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="403">
@@ -14496,16 +14496,16 @@
         <v>0</v>
       </c>
       <c r="H403">
-        <v>1068</v>
+        <v>3600</v>
       </c>
       <c r="I403" t="str">
         <v>120.00</v>
       </c>
       <c r="J403" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K403" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="404">
@@ -14531,16 +14531,16 @@
         <v>0</v>
       </c>
       <c r="H404">
-        <v>8390</v>
+        <v>7832</v>
       </c>
       <c r="I404" t="str">
         <v>120.00</v>
       </c>
       <c r="J404" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K404" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="405">
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>1282</v>
+        <v>2407</v>
       </c>
       <c r="I405" t="str">
         <v>120.00</v>
@@ -14601,16 +14601,16 @@
         <v>0</v>
       </c>
       <c r="H406">
-        <v>9566</v>
+        <v>9110</v>
       </c>
       <c r="I406" t="str">
         <v>120.00</v>
       </c>
       <c r="J406" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K406" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="407">
@@ -14636,7 +14636,7 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>5348</v>
+        <v>1435</v>
       </c>
       <c r="I407" t="str">
         <v>120.00</v>
@@ -14671,16 +14671,16 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <v>2088</v>
+        <v>9374</v>
       </c>
       <c r="I408" t="str">
         <v>120.00</v>
       </c>
       <c r="J408" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K408" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="409">
@@ -14706,16 +14706,16 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>9140</v>
+        <v>4843</v>
       </c>
       <c r="I409" t="str">
         <v>120.00</v>
       </c>
       <c r="J409" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K409" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="410">
@@ -14741,7 +14741,7 @@
         <v>0</v>
       </c>
       <c r="H410">
-        <v>3457</v>
+        <v>2045</v>
       </c>
       <c r="I410" t="str">
         <v>120.00</v>
@@ -14776,16 +14776,16 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <v>1842</v>
+        <v>7592</v>
       </c>
       <c r="I411" t="str">
         <v>120.00</v>
       </c>
       <c r="J411" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K411" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="412">
@@ -14811,16 +14811,16 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>3609</v>
+        <v>2481</v>
       </c>
       <c r="I412" t="str">
         <v>120.00</v>
       </c>
       <c r="J412" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K412" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="413">
@@ -14846,16 +14846,16 @@
         <v>0</v>
       </c>
       <c r="H413">
-        <v>8035</v>
+        <v>3372</v>
       </c>
       <c r="I413" t="str">
         <v>120.00</v>
       </c>
       <c r="J413" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K413" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="414">
@@ -14881,16 +14881,16 @@
         <v>0</v>
       </c>
       <c r="H414">
-        <v>9902</v>
+        <v>5890</v>
       </c>
       <c r="I414" t="str">
         <v>120.00</v>
       </c>
       <c r="J414" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K414" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="415">
@@ -14916,16 +14916,16 @@
         <v>0</v>
       </c>
       <c r="H415">
-        <v>4042</v>
+        <v>4466</v>
       </c>
       <c r="I415" t="str">
         <v>120.00</v>
       </c>
       <c r="J415" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K415" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="416">
@@ -14951,16 +14951,16 @@
         <v>0</v>
       </c>
       <c r="H416">
-        <v>7109</v>
+        <v>4798</v>
       </c>
       <c r="I416" t="str">
         <v>120.00</v>
       </c>
       <c r="J416" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K416" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="417">
@@ -14986,7 +14986,7 @@
         <v>0</v>
       </c>
       <c r="H417">
-        <v>7056</v>
+        <v>6346</v>
       </c>
       <c r="I417" t="str">
         <v>120.00</v>
@@ -15021,16 +15021,16 @@
         <v>0</v>
       </c>
       <c r="H418">
-        <v>7410</v>
+        <v>9975</v>
       </c>
       <c r="I418" t="str">
         <v>120.00</v>
       </c>
       <c r="J418" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K418" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="419">
@@ -15056,16 +15056,16 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <v>4243</v>
+        <v>4249</v>
       </c>
       <c r="I419" t="str">
         <v>120.00</v>
       </c>
       <c r="J419" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K419" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="420">
@@ -15091,16 +15091,16 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>7103</v>
+        <v>2542</v>
       </c>
       <c r="I420" t="str">
         <v>120.00</v>
       </c>
       <c r="J420" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K420" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="421">
@@ -15126,7 +15126,7 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>3857</v>
+        <v>8348</v>
       </c>
       <c r="I421" t="str">
         <v>120.00</v>
@@ -15161,16 +15161,16 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>7367</v>
+        <v>2088</v>
       </c>
       <c r="I422" t="str">
         <v>120.00</v>
       </c>
       <c r="J422" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K422" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="423">
@@ -15196,16 +15196,16 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <v>9865</v>
+        <v>2056</v>
       </c>
       <c r="I423" t="str">
         <v>120.00</v>
       </c>
       <c r="J423" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K423" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="424">
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>9068</v>
+        <v>6151</v>
       </c>
       <c r="I424" t="str">
         <v>90.00</v>
@@ -15266,16 +15266,16 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>6180</v>
+        <v>4519</v>
       </c>
       <c r="I425" t="str">
         <v>120.00</v>
       </c>
       <c r="J425" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K425" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="426">
@@ -15301,16 +15301,16 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>3677</v>
+        <v>5062</v>
       </c>
       <c r="I426" t="str">
         <v>120.00</v>
       </c>
       <c r="J426" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K426" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="427">
@@ -15336,16 +15336,16 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>7989</v>
+        <v>4663</v>
       </c>
       <c r="I427" t="str">
         <v>120.00</v>
       </c>
       <c r="J427" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K427" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="428">
@@ -15371,16 +15371,16 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>8381</v>
+        <v>8763</v>
       </c>
       <c r="I428" t="str">
         <v>120.00</v>
       </c>
       <c r="J428" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K428" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="429">
@@ -15406,16 +15406,16 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>3392</v>
+        <v>1858</v>
       </c>
       <c r="I429" t="str">
         <v>120.00</v>
       </c>
       <c r="J429" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K429" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="430">
@@ -15441,7 +15441,7 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>6627</v>
+        <v>1823</v>
       </c>
       <c r="I430" t="str">
         <v>120.00</v>
@@ -15476,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="H431">
-        <v>1499</v>
+        <v>7257</v>
       </c>
       <c r="I431" t="str">
         <v>120.00</v>
@@ -15511,7 +15511,7 @@
         <v>0</v>
       </c>
       <c r="H432">
-        <v>1057</v>
+        <v>3977</v>
       </c>
       <c r="I432" t="str">
         <v>120.00</v>
@@ -15546,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="H433">
-        <v>4446</v>
+        <v>1104</v>
       </c>
       <c r="I433" t="str">
         <v>120.00</v>
@@ -15581,16 +15581,16 @@
         <v>0</v>
       </c>
       <c r="H434">
-        <v>1205</v>
+        <v>2194</v>
       </c>
       <c r="I434" t="str">
         <v>120.00</v>
       </c>
       <c r="J434" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K434" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="435">
@@ -15616,7 +15616,7 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>9113</v>
+        <v>6518</v>
       </c>
       <c r="I435" t="str">
         <v>120.00</v>
@@ -15651,7 +15651,7 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>8620</v>
+        <v>6482</v>
       </c>
       <c r="I436" t="str">
         <v>120.00</v>
@@ -15686,16 +15686,16 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>6453</v>
+        <v>8474</v>
       </c>
       <c r="I437" t="str">
         <v>120.00</v>
       </c>
       <c r="J437" t="str">
-        <v>0.00</v>
+        <v>5.00</v>
       </c>
       <c r="K437" t="str">
-        <v>120.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="438">
@@ -15721,7 +15721,7 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>8089</v>
+        <v>1967</v>
       </c>
       <c r="I438" t="str">
         <v>120.00</v>
@@ -15756,7 +15756,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>1840</v>
+        <v>1626</v>
       </c>
       <c r="I439" t="str">
         <v>120.00</v>
@@ -15791,16 +15791,16 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>8970</v>
+        <v>2358</v>
       </c>
       <c r="I440" t="str">
         <v>120.00</v>
       </c>
       <c r="J440" t="str">
-        <v>0.00</v>
+        <v>10.00</v>
       </c>
       <c r="K440" t="str">
-        <v>120.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="441">
@@ -15826,16 +15826,16 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>4673</v>
+        <v>9766</v>
       </c>
       <c r="I441" t="str">
         <v>120.00</v>
       </c>
       <c r="J441" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K441" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="442">
@@ -15861,16 +15861,16 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>3719</v>
+        <v>7963</v>
       </c>
       <c r="I442" t="str">
         <v>120.00</v>
       </c>
       <c r="J442" t="str">
-        <v>5.00</v>
+        <v>10.00</v>
       </c>
       <c r="K442" t="str">
-        <v>114.00</v>
+        <v>108.00</v>
       </c>
     </row>
     <row r="443">
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
       <c r="H443">
-        <v>4681</v>
+        <v>6701</v>
       </c>
       <c r="I443" t="str">
         <v>120.00</v>
@@ -15931,16 +15931,16 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>6527</v>
+        <v>3636</v>
       </c>
       <c r="I444" t="str">
         <v>110.00</v>
       </c>
       <c r="J444" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K444" t="str">
-        <v>104.50</v>
+        <v>110.00</v>
       </c>
     </row>
     <row r="445">
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="H445">
-        <v>6588</v>
+        <v>4623</v>
       </c>
       <c r="I445" t="str">
         <v>120.00</v>
@@ -16001,7 +16001,7 @@
         <v>0</v>
       </c>
       <c r="H446">
-        <v>8397</v>
+        <v>2938</v>
       </c>
       <c r="I446" t="str">
         <v>120.00</v>
@@ -16036,16 +16036,16 @@
         <v>0</v>
       </c>
       <c r="H447">
-        <v>3546</v>
+        <v>3214</v>
       </c>
       <c r="I447" t="str">
         <v>120.00</v>
       </c>
       <c r="J447" t="str">
-        <v>10.00</v>
+        <v>0.00</v>
       </c>
       <c r="K447" t="str">
-        <v>108.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="448">
@@ -16071,16 +16071,16 @@
         <v>0</v>
       </c>
       <c r="H448">
-        <v>8670</v>
+        <v>3200</v>
       </c>
       <c r="I448" t="str">
         <v>120.00</v>
       </c>
       <c r="J448" t="str">
-        <v>10.00</v>
+        <v>5.00</v>
       </c>
       <c r="K448" t="str">
-        <v>108.00</v>
+        <v>114.00</v>
       </c>
     </row>
     <row r="449">
@@ -16106,16 +16106,16 @@
         <v>0</v>
       </c>
       <c r="H449">
-        <v>2607</v>
+        <v>5944</v>
       </c>
       <c r="I449" t="str">
         <v>120.00</v>
       </c>
       <c r="J449" t="str">
-        <v>5.00</v>
+        <v>0.00</v>
       </c>
       <c r="K449" t="str">
-        <v>114.00</v>
+        <v>120.00</v>
       </c>
     </row>
     <row r="450">
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
       <c r="H450">
-        <v>8302</v>
+        <v>7502</v>
       </c>
       <c r="I450" t="str">
         <v>120.00</v>
